--- a/Wulinpy/GenerateXSLXtoCSV/xlsx_input/本地化数据_势力.xlsx
+++ b/Wulinpy/GenerateXSLXtoCSV/xlsx_input/本地化数据_势力.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="LocData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="1010">
   <si>
     <t>备注</t>
   </si>
@@ -103,6 +116,9 @@
     <t>Faction</t>
   </si>
   <si>
+    <t>FactionType_4</t>
+  </si>
+  <si>
     <t>FactionElimated</t>
   </si>
   <si>
@@ -268,13 +284,25 @@
     <t>Great Xia</t>
   </si>
   <si>
+    <t>FactionFame_齐王登基</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>無</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>FactionName_半瓶醋工作室</t>
   </si>
   <si>
     <t>半瓶醋工作室</t>
   </si>
   <si>
-    <t>Half Full Studio</t>
+    <t>Half Amateur Studio</t>
   </si>
   <si>
     <t>FactionName_剧情势力</t>
@@ -304,18 +332,33 @@
     <t>FactionName_剧情势力灭门归属</t>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>無</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>FactionName_苗彩蝶个人势力</t>
   </si>
   <si>
+    <t>FactionName_残棋个人势力</t>
+  </si>
+  <si>
+    <t>FactionName_书狂个人势力</t>
+  </si>
+  <si>
+    <t>FactionName_画痴个人势力</t>
+  </si>
+  <si>
+    <t>FactionName_哑琴个人势力</t>
+  </si>
+  <si>
+    <t>FactionName_诸葛神机个人势力</t>
+  </si>
+  <si>
+    <t>FactionName_完颜昭宁个人势力</t>
+  </si>
+  <si>
+    <t>FactionName_凤璇玑个人势力</t>
+  </si>
+  <si>
+    <t>FactionName_燕罗冲个人势力</t>
+  </si>
+  <si>
     <t>FactionName_霖安城虚拟势力</t>
   </si>
   <si>
@@ -496,7 +539,7 @@
     <t>霖安雲林寺</t>
   </si>
   <si>
-    <t>Lin'an Cloud Forest Temple</t>
+    <t>Lin'an Yunlin Temple</t>
   </si>
   <si>
     <t>FactionName_霖安群芳馆</t>
@@ -550,13 +593,22 @@
     <t>Loulan City</t>
   </si>
   <si>
+    <t>FactionName_炎城</t>
+  </si>
+  <si>
+    <t>炎城</t>
+  </si>
+  <si>
+    <t>Flame City</t>
+  </si>
+  <si>
     <t>FactionName_皇城司</t>
   </si>
   <si>
     <t>皇城司</t>
   </si>
   <si>
-    <t>Imperial City Office</t>
+    <t>Imperial City Department</t>
   </si>
   <si>
     <t>FactionName_儒圣馆</t>
@@ -661,7 +713,7 @@
     <t>九江水寨</t>
   </si>
   <si>
-    <t>Jiujiang Water Camp</t>
+    <t>Jiujiang Fotress</t>
   </si>
   <si>
     <t>FactionName_琳琅馆</t>
@@ -709,7 +761,7 @@
     <t>本草門</t>
   </si>
   <si>
-    <t>Plant Sect</t>
+    <t>Herbology Sect</t>
   </si>
   <si>
     <t>FactionName_望东门</t>
@@ -754,7 +806,7 @@
     <t>夜摩坊</t>
   </si>
   <si>
-    <t>Night Demon Square</t>
+    <t>Night Auction Market</t>
   </si>
   <si>
     <t>FactionName_大漠鬼门</t>
@@ -844,7 +896,19 @@
     <t>大王寨</t>
   </si>
   <si>
-    <t>Bandit Camp</t>
+    <t>Bandit Chief Stronghold</t>
+  </si>
+  <si>
+    <t>FactionName_新九流门</t>
+  </si>
+  <si>
+    <t>新九流门</t>
+  </si>
+  <si>
+    <t>新九流門</t>
+  </si>
+  <si>
+    <t>New Nine Factions Sect</t>
   </si>
   <si>
     <t>FactionName_姑苏遗址</t>
@@ -889,7 +953,7 @@
     <t>燕子窩</t>
   </si>
   <si>
-    <t>Nest of Swallow</t>
+    <t>Swallow Nest</t>
   </si>
   <si>
     <t>FactionName_燕云铁军</t>
@@ -946,7 +1010,7 @@
     <t>齊王府</t>
   </si>
   <si>
-    <t>Duke Ji's manor</t>
+    <t>Duke Qi's Manor</t>
   </si>
   <si>
     <t>FactionName_神捕门</t>
@@ -1066,7 +1130,7 @@
     <t>珠光寶氣樓</t>
   </si>
   <si>
-    <t>Glittering Artifact House</t>
+    <t>Glittering Artifact Auction</t>
   </si>
   <si>
     <t>FactionName_繁华似锦楼</t>
@@ -1090,7 +1154,7 @@
     <t>雲林寺</t>
   </si>
   <si>
-    <t>Cloud Forest Temple</t>
+    <t>Yunlin Temple</t>
   </si>
   <si>
     <t>FactionName_聚财坊</t>
@@ -1126,7 +1190,7 @@
     <t>鎮西關</t>
   </si>
   <si>
-    <t>West Pass</t>
+    <t>West Border Patrol</t>
   </si>
   <si>
     <t>FactionName_月老祠</t>
@@ -1207,6 +1271,27 @@
     <t>Flower Sect</t>
   </si>
   <si>
+    <t>FactionName_本草居</t>
+  </si>
+  <si>
+    <t>本草居</t>
+  </si>
+  <si>
+    <t>Plant House</t>
+  </si>
+  <si>
+    <t>FactionName_玉门关</t>
+  </si>
+  <si>
+    <t>玉门关</t>
+  </si>
+  <si>
+    <t>玉門關</t>
+  </si>
+  <si>
+    <t>Jade Gate</t>
+  </si>
+  <si>
     <t>skip</t>
   </si>
   <si>
@@ -1276,6 +1361,18 @@
     <t/>
   </si>
   <si>
+    <t>FactionName_束云寨</t>
+  </si>
+  <si>
+    <t>束云寨</t>
+  </si>
+  <si>
+    <t>束雲寨</t>
+  </si>
+  <si>
+    <t>Cloud Camp</t>
+  </si>
+  <si>
     <t>FactionName_平安镖局</t>
   </si>
   <si>
@@ -1330,7 +1427,7 @@
     <t>楚襄丁家</t>
   </si>
   <si>
-    <t>Chuxiang Ding family's house</t>
+    <t>Chuxiang Ding family's mansion</t>
   </si>
   <si>
     <t>FactionName_琼花谷</t>
@@ -1372,7 +1469,7 @@
     <t>武帝陵</t>
   </si>
   <si>
-    <t>Emperor Wu Mausoleum</t>
+    <t>Emperor Wu's Mausoleum</t>
   </si>
   <si>
     <t>FactionName_邙山穴</t>
@@ -1393,7 +1490,7 @@
     <t>斷魂林</t>
   </si>
   <si>
-    <t>Soul Destroyer Forest</t>
+    <t>Forest of Broken Souls</t>
   </si>
   <si>
     <t>FactionName_长生冢</t>
@@ -1408,9 +1505,24 @@
     <t>Longevity Tomb</t>
   </si>
   <si>
+    <t>FactionName_长安客栈</t>
+  </si>
+  <si>
+    <t>长安客栈</t>
+  </si>
+  <si>
+    <t>長安客棧</t>
+  </si>
+  <si>
+    <t>Chang'an Inn</t>
+  </si>
+  <si>
     <t>FactionName_公用动物</t>
   </si>
   <si>
+    <t>FactionName_公用怪物</t>
+  </si>
+  <si>
     <t>FactionName_洪小七</t>
   </si>
   <si>
@@ -1597,6 +1709,42 @@
     <t>FactionName_废弃院落</t>
   </si>
   <si>
+    <t>FactionName_龙翔镖局总镖头</t>
+  </si>
+  <si>
+    <t>FactionName_逆风笑</t>
+  </si>
+  <si>
+    <t>FactionName_大白鹅1</t>
+  </si>
+  <si>
+    <t>FactionName_牛二</t>
+  </si>
+  <si>
+    <t>FactionName_李三</t>
+  </si>
+  <si>
+    <t>FactionName_陆剑南</t>
+  </si>
+  <si>
+    <t>FactionName_雪绒</t>
+  </si>
+  <si>
+    <t>FactionName_白虎</t>
+  </si>
+  <si>
+    <t>FactionName_白狐</t>
+  </si>
+  <si>
+    <t>FactionName_鹰兄</t>
+  </si>
+  <si>
+    <t>FactionName_修罗真人</t>
+  </si>
+  <si>
+    <t>FactionName_火蟾蜍</t>
+  </si>
+  <si>
     <t>FactionName_人伢婆-大梁-丁</t>
   </si>
   <si>
@@ -1630,6 +1778,24 @@
     <t>FactionName_有口不言-哑口无言的婆婆</t>
   </si>
   <si>
+    <t>FactionName_M20100-2损道人替身</t>
+  </si>
+  <si>
+    <t>FactionName_R10003-5恶乞丐替身</t>
+  </si>
+  <si>
+    <t>FactionName_School-2010-2老婆婆演员</t>
+  </si>
+  <si>
+    <t>FactionName_雪山居民</t>
+  </si>
+  <si>
+    <t>FactionName_共祭养的公鸡</t>
+  </si>
+  <si>
+    <t>FactionName_梨花羡</t>
+  </si>
+  <si>
     <t>FactionInfo_燕国</t>
   </si>
   <si>
@@ -1639,7 +1805,7 @@
     <t>北方苦寒之地的少數民族。在皇弟完顏烏珠的帶領下，多次進犯趙國，奪取了長江以北的趙國國土，如今正對剩下的半壁江山虎視眈眈。</t>
   </si>
   <si>
-    <t>A minority group from the harsh northern lands. Under the leadership of Prince Wan Yan Wuzhu, they have repeatedly invaded the Zhao Kingdom, seizing the lands north of the Yangtze River. They are now eyeing the remaining half of the kingdom.</t>
+    <t>A minority group from the harsh northern lands. Under the leadership of Prince Wanyan Wuzhu, they have repeatedly invaded the Zhao Kingdom, seizing the lands north of the Yangtze River. They are now eyeing the remaining half of the kingdom.</t>
   </si>
   <si>
     <t>FactionInfo_齐王府</t>
@@ -1651,7 +1817,7 @@
     <t>大梁城齊王的勢力，燕軍攻破大梁城後，將大梁城交給齊王治理。齊王掌權後不問政事，終日沉溺書畫詩賦，樂不思蜀。</t>
   </si>
   <si>
-    <t>The power of Qi Wang in Daliang City. After the Yan army broke through Daliang City, they handed it over to Qi Wang for governance. Qi Wang, after taking power, indulges in calligraphy and poetry all day, being optimistic.</t>
+    <t>The power of Duke Qi in Daliang City. After the Yan army broke through Daliang City, they handed it over to Duke Qi for governance. Duke Qi, after taking power, indulges in calligraphy and poetry all day, being optimistic.</t>
   </si>
   <si>
     <t>FactionInfo_康王府</t>
@@ -1663,7 +1829,7 @@
     <t>霖安城康王的勢力，管理吳越一帶。在秦會之的輔助下勢力迅速壯大，被吳越百姓視為當今朝廷的正統一派。</t>
   </si>
   <si>
-    <t>The power of Kang Wang in Lin'an City, managing the Wuyue region. With the assistance of Qin Huizhi, his power has rapidly grown and is regarded by the people of Wuyue as the legitimate faction of the current court.</t>
+    <t>The power of Duke Kang in Lin'an City, managing the Wuyue region. With the assistance of Qin Huizhi, his power has rapidly grown and is regarded by the people of Wuyue as the legitimate faction of the current court.</t>
   </si>
   <si>
     <t>FactionInfo_上京城</t>
@@ -1675,10 +1841,10 @@
     <t>吴越地区乃至江南最繁华的都市，康王的封地。这里远离前线，偏安一隅。人们以船为渡，生活惬意，是人人向往的鱼米之乡。</t>
   </si>
   <si>
-    <t>吳越地區乃至江南最繁華的都市，康王的封地。這裡遠離前線，偏安一隅。人們以船為渡，生活愜意，是人人嚮往的魚米之鄉。</t>
-  </si>
-  <si>
-    <t>Wuyue, and even the most prosperous city in the south of the Yangtze River, is the fief of Kang Wang. This place is far from the front line and is a peaceful corner. People use boats for transportation and live comfortably. It is a land of fish and rice that everyone yearns for.</t>
+    <t>吳越地區乃至江南最繁華的都市，康王的封地。這裏遠離前線，偏安一隅。人們以船為渡，生活愜意，是人人嚮往的魚米之鄉。</t>
+  </si>
+  <si>
+    <t>Wuyue, and even the most prosperous city in the south of the Yangtze River, is the fief of Duke Kang. This place is far from the front line and is a peaceful corner. People use boats for transportation and live comfortably. It is a land of fish and rice that everyone yearns for.</t>
   </si>
   <si>
     <t>FactionInfo_楚襄城</t>
@@ -1690,7 +1856,7 @@
     <t>位於襄樊地區的心臟位置，自古以來便是鎮守南北門戶的兵家必爭之地。以易守難攻著稱，堪稱中原第一城。數十年前北燕南侵，便是在此折戟。</t>
   </si>
   <si>
-    <t>Located in the heart of Xiangfan, it has been a strategic military location since ancient times. Known for its easy defense and difficult attack, it is known as the first city in the Central Plains. Decades ago, when the Northern Yan invaded the south, they were defeated here.</t>
+    <t>Located in the heart of Xiangfan Region, it has been a strategic military location since ancient times. Known for its easy defense and difficult attack, it is known as the first city in the Central Plains. Decades ago, when the Northern Yan invaded the south, they were defeated here.</t>
   </si>
   <si>
     <t>FactionInfo_大梁城</t>
@@ -1702,10 +1868,19 @@
     <t>中州地區第一繁華的都市，曾是趙國的首都所在。燕軍侵佔後對此地並未加以掠奪，如今由齊王管理，仍舊是一派夜夜笙歌的奢靡景象。</t>
   </si>
   <si>
-    <t>The most prosperous city in Zhongzhou, once the capital of the Zhao Kingdom. After the Yan army occupied it, they did not loot this place. Now it is managed by Qi Wang and is still a scene of extravagant nightlife.</t>
-  </si>
-  <si>
-    <t>FactionInfo_芙蓉城</t>
+    <t>The most prosperous city in Zhongzhou Region, once the capital of the Zhao Kingdom. After the Yan army occupied it, they did not loot this place. Now it is managed by Duke Qi and is still a scene of extravagant nightlife.</t>
+  </si>
+  <si>
+    <t>FactionInfo_炎城</t>
+  </si>
+  <si>
+    <t>原本是冷皮帮的营地，经过数年的发展和修葺如今已经变成中原和西方诸国重要商路上最大也最重要的商业枢纽之一，更是有百商汇通的说法。</t>
+  </si>
+  <si>
+    <t>原本是冷皮幫的營地，經過數年的發展和修葺如今已經變成中原和西方諸國重要商路上最大也最重要的商業樞紐之一，更是有百商匯通的說法。</t>
+  </si>
+  <si>
+    <t>Originally the camp of the Cold Skin Gang, after years of development and renovation, it has now become one of the largest and most important commercial hubs on the important trade routes between the Central Plains and the Western countries, and is even known as the gathering place of hundreds of merchants.</t>
   </si>
   <si>
     <t>FactionInfo_云滇城</t>
@@ -1795,7 +1970,7 @@
     <t>柳生武藏在中原建立的據點，經常有東瀛人進入中原，四處尋釁，其真實意圖不明。</t>
   </si>
   <si>
-    <t>The stronghold established by Liu Sheng Wucang in the Central Plains, where people from Dongying often enter the Central Plains and provoke disputes everywhere, their true intentions are unknown.</t>
+    <t>The stronghold established by Yagyū Musashi in the Central Plains, where people from Dongying often enter the Central Plains and provoke disputes everywhere, their true intentions are unknown.</t>
   </si>
   <si>
     <t>FactionInfo_沙门岛</t>
@@ -1813,13 +1988,13 @@
     <t>FactionInfo_圣火宗</t>
   </si>
   <si>
-    <t>远居西北的一大势力，由教主方啸天统领，威震西北。</t>
-  </si>
-  <si>
-    <t>遠居西北的一大勢力，由教主方嘯天統領，威震西北。</t>
-  </si>
-  <si>
-    <t>A major force in the far northwest, led by the leader Fang Xiaoian, dominates the northwest.</t>
+    <t>西北地区异军突起的一大势力，在现任宗主方啸天的统领下，横扫西域，无人可敌。</t>
+  </si>
+  <si>
+    <t>西北地區異軍突起的一大勢力，在現任宗主方嘯天的統領下，橫掃西域，無人可敵。</t>
+  </si>
+  <si>
+    <t>A rising power in the northwest region, under the command of the current leader Fang Xiaoian, sweeps the Western Regions, invincible.</t>
   </si>
   <si>
     <t>FactionInfo_海蛟帮</t>
@@ -1831,7 +2006,7 @@
     <t>盤踞在無名地區水上的一夥水賊，拐賣人口、殺人越貨無惡不作。常令幫眾假扮富商騙人出海，那些上當的人從此便人間蒸發了。</t>
   </si>
   <si>
-    <t>A group of water bandits who occupy the Nameless area on the water, they kidnap and sell people, and commit all kinds of evil. They often order their gang members to pretend to be rich businessmen to deceive people to go out to sea, and those who are fooled disappear from the world.</t>
+    <t>A group of water bandits who occupy the Nameless Region on the water, they kidnap and sell people, and commit all kinds of evil. They often order their gang members to pretend to be rich businessmen to deceive people to go out to sea, and those who are fooled disappear from the world.</t>
   </si>
   <si>
     <t>FactionInfo_琅琊剑阁</t>
@@ -1933,13 +2108,13 @@
     <t>FactionInfo_万兽山庄</t>
   </si>
   <si>
-    <t>巴蜀之地的一大山庄，擅长驭兽之术。在唐太君的带领下，威震西南，让西南各部不敢进犯。</t>
-  </si>
-  <si>
-    <t>巴蜀之地的一大山莊，擅長馭獸之術。在唐太君的帶領下，威震西南，讓西南各部不敢進犯。</t>
-  </si>
-  <si>
-    <t>A large mountain village in Bashu, good at beast taming. Under the leadership of Tang Tai Jun, it dominates the southwest, making the various parts of the southwest dare not offend.</t>
+    <t>偏居西南之地，以驭兽之术见长的一大山庄。庄主唐太君为遵守镇守西南的承诺，于几十年前举族迁居至此，自此威震西南，让九黎部落再难染指中原。</t>
+  </si>
+  <si>
+    <t>偏居西南之地，以馭獸之術見長的一大山莊。莊主唐太君為遵守鎮守西南的承諾，於幾十年前舉族遷居至此，自此威震西南，讓九黎部落再難染指中原。</t>
+  </si>
+  <si>
+    <t>A large manor located in the southwest, known for its beast taming skills. The manor owner, Tang Tai Jun, moved his family here decades ago to keep his promise of guarding the southwest. Since then, they have dominated the southwest, preventing the Jiuli Tribe from invading the Central Plains.</t>
   </si>
   <si>
     <t>FactionInfo_虎威镖局</t>
@@ -1963,7 +2138,7 @@
     <t>大梁城外只在夜晚開啟的市集，每到夜晚便熱鬧非常。每天晚上更是有拍賣會舉辦，大有和珠光寶氣樓叫板的架勢。</t>
   </si>
   <si>
-    <t>A market outside Daliang City that only opens at night, it is very lively every night. There is an auction every night, and it has the posture of competing with the Glittering Artifact House.</t>
+    <t>A market outside Daliang City that only opens at night, it is very lively every night. There is an auction every night, and it has the posture of competing with the Glittering Artifact Auction.</t>
   </si>
   <si>
     <t>FactionInfo_玄衣会</t>
@@ -1993,13 +2168,13 @@
     <t>FactionInfo_冷皮帮</t>
   </si>
   <si>
-    <t>位于大漠炎城之中，是炎城实际的掌权者，数年间替赵国守住了西北大漠。</t>
-  </si>
-  <si>
-    <t>位於大漠炎城之中，是炎城實際的掌權者，數年間替趙國守住了西北大漠。</t>
-  </si>
-  <si>
-    <t>Located in the Flame City in the desert, it is the actual ruler of the Flame City, and has guarded the northwest desert for the Zhao Kingdom for several years.</t>
+    <t>位于大漠炎城之中，是炎城实际的掌权者。在帮主霍诗楼的管理下努力抵抗自封西域霸主的圣火宗。</t>
+  </si>
+  <si>
+    <t>位於大漠炎城之中，是炎城實際的掌權者。在幫主霍詩樓的管理下努力抵抗自封西域霸主的聖火宗。</t>
+  </si>
+  <si>
+    <t>Located in the Flame City in the desert, it is the actual ruler of Flame City. Under the management of Master Huo Shilou, it resists the self-proclaimed Western Regions hegemon, the Holy Fire Sect.</t>
   </si>
   <si>
     <t>FactionInfo_燕云铁军</t>
@@ -2011,7 +2186,7 @@
     <t>燕國的精銳軍隊，兵強馬壯，在完顏烏珠的統帥下對中原江山虎視眈眈。</t>
   </si>
   <si>
-    <t>The elite army of the Yan Kingdom, with strong soldiers and horses, is eyeing the Central Plains under the command of Wan Yan Wuzhu.</t>
+    <t>The elite army of the Yan Kingdom, with strong soldiers and horses, is eyeing the Central Plains under the command of Wanyan Wuzhu.</t>
   </si>
   <si>
     <t>FactionInfo_将军府</t>
@@ -2056,7 +2231,7 @@
     <t>立足于大梁城，是全天下最酒醉金迷的地方，在这里，人性的丑陋一览无余。</t>
   </si>
   <si>
-    <t>立足於大梁城，是全天下最酒醉金迷的地方，在這裡，人性的醜陋一覽無餘。</t>
+    <t>立足於大梁城，是全天下最酒醉金迷的地方，在這裏，人性的醜陋一覽無餘。</t>
   </si>
   <si>
     <t>Based in Daliang City, it is the most drunken and golden place in the world. Here, the ugliness of human nature is fully exposed.</t>
@@ -2116,7 +2291,7 @@
     <t>楚襄城内的一处无法地带，连官府也不敢随意踏入，这里聚集了各种不法之徒和流浪汉，是不折不扣的法外之地。</t>
   </si>
   <si>
-    <t>楚襄城內的一處無法地帶，連官府也不敢隨意踏入，這裡聚集了各種不法之徒和流浪漢，是不折不扣的法外之地。</t>
+    <t>楚襄城內的一處無法地帶，連官府也不敢隨意踏入，這裏聚集了各種不法之徒和流浪漢，是不折不扣的法外之地。</t>
   </si>
   <si>
     <t>A lawless area in Chuxiang City, where even the government dare not enter at will. It is a gathering place for all kinds of criminals and vagrants, a lawless land.</t>
@@ -2167,7 +2342,19 @@
     <t>無名地區的一個山寨，首領鬼見愁佔山為王，為禍世間，行經無名地區的旅人多受其累。</t>
   </si>
   <si>
-    <t>A mountain stronghold in the Nameless area, where the leader Gui Jianchou is the king of the mountain, causing trouble in the world. Travelers passing through the Nameless area are often troubled by him.</t>
+    <t>A mountain stronghold in the Nameless Region, where the leader Gui Jianchou is the king of the mountain, causing trouble in the world. Travelers passing through the Nameless Region are often troubled by him.</t>
+  </si>
+  <si>
+    <t>FactionInfo_新九流门</t>
+  </si>
+  <si>
+    <t>由你铲除旧疮重新建立的九流门，未来将如何发展，是行善匡扶天下，还是作恶为害一方？这些都在你一念之间。</t>
+  </si>
+  <si>
+    <t>由你剷除舊瘡重新建立的九流門，未來將如何發展，是行善匡扶天下，還是作惡為害一方？這些都在你一念之間。</t>
+  </si>
+  <si>
+    <t>The Nine Factions Sect, which you have rebuilt by eradicating the old wounds, how will it develop in the future? Will it do good and help the world, or will it do evil and harm one side? All these are in your thoughts.</t>
   </si>
   <si>
     <t>FactionInfo_保国寺</t>
@@ -2203,7 +2390,55 @@
     <t>無名地區的一處關隘，時刻防備西南方的外族入侵。</t>
   </si>
   <si>
-    <t>A pass in the Nameless area, always prepared for the invasion of foreign tribes from the southwest.</t>
+    <t>A pass in the Nameless Region, always prepared for the invasion of foreign tribes from the southwest.</t>
+  </si>
+  <si>
+    <t>FactionInfo_束云寨</t>
+  </si>
+  <si>
+    <t>西南之地的一伙盗猎者，会盗猎珍稀动物，并将其以特殊渠道运至中原，以换取大量钱财。</t>
+  </si>
+  <si>
+    <t>西南之地的一夥盜獵者，會盜獵珍稀動物，並將其以特殊渠道運至中原，以換取大量錢財。</t>
+  </si>
+  <si>
+    <t>A group of poachers in the southwest, who hunt rare animals and transport them to the Central Plains through special channels in exchange for a large amount of money.</t>
+  </si>
+  <si>
+    <t>FactionInfo_本草居</t>
+  </si>
+  <si>
+    <t>前本草门弟子——柳本草于西南建立的医馆，力图尽可能医治西南之地所有受毒虫瘴气所苦的人们。</t>
+  </si>
+  <si>
+    <t>前本草門弟子——柳本草於西南建立的醫館，力圖儘可能醫治西南之地所有受毒蟲瘴氣所苦的人們。</t>
+  </si>
+  <si>
+    <t>A clinic established in the southwest by Liu Bencao, a former disciple of the Herbology Sect, aiming to treat as many people as possible who are suffering from poisonous insects and miasma.</t>
+  </si>
+  <si>
+    <t>FactionInfo_玉门关</t>
+  </si>
+  <si>
+    <t>中州地区的一大关隘，出了玉门关便是西北地区无尽的沙漠。</t>
+  </si>
+  <si>
+    <t>中州地區的一大關隘，出了玉門關便是西北地區無盡的沙漠。</t>
+  </si>
+  <si>
+    <t>A major pass in the Zhongzhou Region, beyond the Jade Gate is the endless desert of the northwest region.</t>
+  </si>
+  <si>
+    <t>FactionInfo_长安客栈</t>
+  </si>
+  <si>
+    <t>坐落在西北荒漠中的一处客栈，是出了玉门关后进入炎城前的唯一落脚处和补给处，在年轻的老板娘海棠秋打理下井井有条。</t>
+  </si>
+  <si>
+    <t>坐落在西北荒漠中的一處客棧，是出了玉門關後進入炎城前的唯一落腳處和補給處，在年輕的老闆娘海棠秋打理下井井有條。</t>
+  </si>
+  <si>
+    <t>An inn located in the northwest desert, it is the only place to stay and supply after leaving the Jade Gate and before entering Flame City. It is well-organized under the management of the young landlady Haitang Qiu.</t>
   </si>
   <si>
     <t>FactionGuard_0</t>
@@ -2827,7 +3062,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -3453,7 +3688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment vertical="center"/>
@@ -3599,7 +3834,6 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="21" applyFont="1" fillId="33" applyFill="1" borderId="0" applyBorder="1" xfId="48">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
@@ -3961,5235 +4195,5923 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F309"/>
+  <dimension ref="A1:F349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="C220" sqref="C220"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="50.625" customWidth="1" style="52"/>
-    <col min="2" max="2" width="22.25" customWidth="1" style="51"/>
-    <col min="3" max="3" width="34.75" customWidth="1" style="53"/>
-    <col min="4" max="4" width="62.25" customWidth="1" style="54"/>
-    <col min="5" max="5" width="13.8833333333333" customWidth="1" style="53"/>
-    <col min="7" max="7" width="18.3833333333333" customWidth="1" style="51"/>
-    <col min="8" max="8" width="15.75" customWidth="1" style="51"/>
-    <col min="9" max="9" width="17.3833333333333" customWidth="1" style="51"/>
-    <col min="10" max="10" width="15.1333333333333" customWidth="1" style="51"/>
-    <col min="11" max="11" width="14.75" customWidth="1" style="51"/>
-    <col min="12" max="12" width="14.3833333333333" customWidth="1" style="51"/>
-    <col min="13" max="13" width="19.25" customWidth="1" style="51"/>
-    <col min="14" max="14" width="17.8833333333333" customWidth="1" style="51"/>
-    <col min="15" max="16384" width="9" customWidth="1" style="51"/>
+    <col min="1" max="1" width="50.625" customWidth="1" style="51"/>
+    <col min="2" max="2" width="22.25" customWidth="1" style="50"/>
+    <col min="3" max="3" width="34.75" customWidth="1" style="52"/>
+    <col min="4" max="4" width="62.25" customWidth="1" style="53"/>
+    <col min="5" max="5" width="13.8833333333333" customWidth="1" style="52"/>
+    <col min="6" max="6" width="28.25" customWidth="1" style="49"/>
+    <col min="7" max="7" width="18.3833333333333" customWidth="1" style="50"/>
+    <col min="8" max="8" width="15.75" customWidth="1" style="50"/>
+    <col min="9" max="9" width="17.3833333333333" customWidth="1" style="50"/>
+    <col min="10" max="10" width="15.1333333333333" customWidth="1" style="50"/>
+    <col min="11" max="11" width="14.75" customWidth="1" style="50"/>
+    <col min="12" max="12" width="14.3833333333333" customWidth="1" style="50"/>
+    <col min="13" max="13" width="19.25" customWidth="1" style="50"/>
+    <col min="14" max="14" width="17.8833333333333" customWidth="1" style="50"/>
+    <col min="15" max="16384" width="9" customWidth="1" style="50"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="57" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="58" t="s">
+      <c r="D4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="57" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="50" t="s">
+      <c r="F5" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="57" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="49" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="57" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="49" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="57" t="s">
+      <c r="A8" s="54"/>
+      <c r="B8" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="D9" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="E9" s="58" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="59" t="s">
+      <c r="F9" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="54" t="s">
+    </row>
+    <row r="10">
+      <c r="B10" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="50" t="s">
+      <c r="D10" s="53" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="59" t="s">
+      <c r="E10" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="54" t="s">
+    </row>
+    <row r="11">
+      <c r="B11" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="D11" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="E11" s="52" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="59" t="s">
+      <c r="F11" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="54" t="s">
+    </row>
+    <row r="12">
+      <c r="B12" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="50" t="s">
+      <c r="D12" s="53" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="59" t="s">
+      <c r="E12" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="54" t="s">
+    </row>
+    <row r="13">
+      <c r="B13" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="50" t="s">
+      <c r="D13" s="53" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="59" t="s">
+      <c r="E13" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="54" t="s">
+    </row>
+    <row r="14">
+      <c r="B14" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="50" t="s">
+      <c r="D14" s="53" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="59" t="s">
+      <c r="E14" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="54" t="s">
+    </row>
+    <row r="15">
+      <c r="B15" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="D15" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="E15" s="52" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="59" t="s">
+      <c r="F15" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="54" t="s">
+    </row>
+    <row r="16">
+      <c r="B16" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="D16" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="E16" s="52" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="59" t="s">
+      <c r="F16" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="54" t="s">
+    </row>
+    <row r="17">
+      <c r="B17" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="50" t="s">
+      <c r="D17" s="53" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="59" t="s">
+      <c r="E17" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="54" t="s">
+    </row>
+    <row r="18">
+      <c r="B18" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="50" t="s">
+      <c r="D18" s="53" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="59" t="s">
+      <c r="E18" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="54" t="s">
+    </row>
+    <row r="19">
+      <c r="B19" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="50" t="s">
+      <c r="D19" s="53" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="59" t="s">
+      <c r="E19" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="58" t="s">
+    </row>
+    <row r="20">
+      <c r="B20" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="50" t="s">
+      <c r="D20" s="57" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="59" t="s">
+      <c r="E20" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="58" t="s">
+    </row>
+    <row r="21">
+      <c r="B21" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="D21" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="E21" s="52" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="59" t="s">
+      <c r="F21" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="58" t="s">
+    </row>
+    <row r="22">
+      <c r="B22" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="D22" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="E22" s="52" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="59" t="s">
+      <c r="F22" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="58" t="s">
+    </row>
+    <row r="23">
+      <c r="B23" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="D23" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="E23" s="52" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="59" t="s">
+      <c r="F23" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="58" t="s">
+    </row>
+    <row r="24">
+      <c r="B24" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="50" t="s">
+      <c r="D24" s="57" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="59" t="s">
+      <c r="E24" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="58" t="s">
+    </row>
+    <row r="25">
+      <c r="B25" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="50" t="s">
+      <c r="D25" s="57" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="59" t="s">
+      <c r="E25" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="F25" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="53" t="s">
+    </row>
+    <row r="26">
+      <c r="B26" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="D26" s="57" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="59" t="s">
+      <c r="E26" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="58" t="s">
+    </row>
+    <row r="27">
+      <c r="B27" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="D27" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="E27" s="52" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="59" t="s">
+      <c r="F27" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="58" t="s">
+    </row>
+    <row r="28">
+      <c r="B28" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="D28" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="50" t="s">
+      <c r="E28" s="52" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="59" t="s">
+      <c r="F28" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="29">
-      <c r="B29" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="59" t="s">
+      <c r="B29" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="E29" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="50" t="s">
+      <c r="D30" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="58" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="59" t="s">
+      <c r="D31" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D30" s="58" t="s">
+      <c r="D32" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="F30" s="50" t="s">
+      <c r="D33" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="58" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="59" t="s">
+      <c r="D34" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D35" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="F31" s="50" t="s">
+      <c r="D36" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="58" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="59" t="s">
+      <c r="D37" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="58" t="s">
+      <c r="D38" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="50" t="s">
+      <c r="D39" s="57" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="59" t="s">
+      <c r="E39" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" s="50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="59" t="s">
+    </row>
+    <row r="40">
+      <c r="B40" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D40" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="E34" s="53" t="s">
+      <c r="E40" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="50" t="s">
+    </row>
+    <row r="41">
+      <c r="B41" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="58" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="59" t="s">
+      <c r="D41" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="D35" s="58" t="s">
+      <c r="E41" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="E35" s="53" t="s">
+    </row>
+    <row r="42">
+      <c r="B42" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="58" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="D42" s="57" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="59" t="s">
+      <c r="E42" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="58" t="s">
+    </row>
+    <row r="43">
+      <c r="B43" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="D43" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="D44" s="57" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="59" t="s">
+      <c r="E44" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="F44" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="53" t="s">
+    </row>
+    <row r="45">
+      <c r="B45" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="F37" s="50" t="s">
+      <c r="D45" s="57" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="59" t="s">
+      <c r="E45" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="D38" s="58" t="s">
+      <c r="F45" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="E38" s="53" t="s">
+    </row>
+    <row r="46">
+      <c r="B46" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="D46" s="57" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="59" t="s">
+      <c r="E46" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="58" t="s">
+      <c r="F46" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="53" t="s">
+    </row>
+    <row r="47">
+      <c r="B47" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="50" t="s">
+      <c r="D47" s="57" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="59" t="s">
+      <c r="E47" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="D40" s="58" t="s">
+      <c r="F47" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="53" t="s">
+    </row>
+    <row r="48">
+      <c r="B48" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="F40" s="50" t="s">
+      <c r="D48" s="57" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="59" t="s">
+      <c r="E48" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="58" t="s">
+      <c r="F48" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="E41" s="53" t="s">
+    </row>
+    <row r="49">
+      <c r="B49" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="D49" s="57" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="59" t="s">
+      <c r="E49" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="F49" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="E42" s="53" t="s">
+    </row>
+    <row r="50">
+      <c r="B50" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="F42" s="50" t="s">
+      <c r="D50" s="57" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="59" t="s">
+      <c r="E50" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="58" t="s">
+      <c r="F50" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="E43" s="53" t="s">
+    </row>
+    <row r="51">
+      <c r="B51" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="D51" s="57" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="59" t="s">
+      <c r="E51" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="D44" s="58" t="s">
+      <c r="F51" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="53" t="s">
+    </row>
+    <row r="52">
+      <c r="B52" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="D52" s="57" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="59" t="s">
+      <c r="E52" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="58" t="s">
+      <c r="F52" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="E45" s="53" t="s">
+    </row>
+    <row r="53">
+      <c r="B53" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="F45" s="50" t="s">
+      <c r="D53" s="57" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="59" t="s">
+      <c r="E53" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="58" t="s">
+      <c r="F53" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="E46" s="53" t="s">
+    </row>
+    <row r="54">
+      <c r="B54" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F46" s="50" t="s">
+      <c r="D54" s="57" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="59" t="s">
+      <c r="E54" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="D47" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="F47" s="50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="59" t="s">
+      <c r="F54" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="D48" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" s="59" t="s">
+    </row>
+    <row r="55">
+      <c r="B55" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="58" t="s">
+      <c r="D55" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="E49" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="F49" s="50" t="s">
+      <c r="E55" s="52" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="59" t="s">
+      <c r="F55" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="58" t="s">
+    </row>
+    <row r="56">
+      <c r="B56" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="E50" s="53" t="s">
+      <c r="D56" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="E56" s="52" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="59" t="s">
+      <c r="F56" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="58" t="s">
+    </row>
+    <row r="57">
+      <c r="B57" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="E51" s="53" t="s">
+      <c r="D57" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" s="49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="F51" s="50" t="s">
+      <c r="D58" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" s="49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="58" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="59" t="s">
+      <c r="D59" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D52" s="58" t="s">
+      <c r="E59" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="E52" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="F52" s="50" t="s">
+    </row>
+    <row r="60">
+      <c r="B60" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="58" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="59" t="s">
+      <c r="D60" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="58" t="s">
+      <c r="E60" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="E53" s="53" t="s">
+      <c r="F60" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="F53" s="50" t="s">
+    </row>
+    <row r="61">
+      <c r="B61" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="58" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="59" t="s">
+      <c r="D61" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="E61" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="E54" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="F54" s="50" t="s">
+      <c r="F61" s="49" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="55">
-      <c r="B55" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="59" t="s">
+    <row r="62">
+      <c r="B62" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D62" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="E55" s="53" t="s">
+      <c r="E62" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="F62" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="F55" s="50" t="s">
+    </row>
+    <row r="63">
+      <c r="B63" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="58" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="B56" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="59" t="s">
+      <c r="D63" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="E63" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="E56" s="53" t="s">
+    </row>
+    <row r="64">
+      <c r="B64" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="F56" s="50" t="s">
+      <c r="D64" s="57" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="59" t="s">
+      <c r="E64" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="D57" s="58" t="s">
+      <c r="F64" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="E57" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="F57" s="50" t="s">
+    </row>
+    <row r="65">
+      <c r="B65" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="58" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" s="59" t="s">
+      <c r="D65" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="D58" s="58" t="s">
+      <c r="E65" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="F65" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="E58" s="53" t="s">
-        <v>200</v>
-      </c>
-      <c r="F58" s="50" t="s">
+    </row>
+    <row r="66">
+      <c r="B66" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="58" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="59" t="s">
+      <c r="D66" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="D59" s="58" t="s">
+      <c r="E66" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="E59" s="53" t="s">
+      <c r="F66" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="F59" s="50" t="s">
+    </row>
+    <row r="67">
+      <c r="B67" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="58" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="59" t="s">
+      <c r="D67" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="D60" s="58" t="s">
+      <c r="E67" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="E60" s="53" t="s">
+      <c r="F67" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="F60" s="50" t="s">
+    </row>
+    <row r="68">
+      <c r="B68" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="58" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="59" t="s">
+      <c r="D68" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="D61" s="58" t="s">
+      <c r="E68" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="E61" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="F61" s="50" t="s">
+    </row>
+    <row r="69">
+      <c r="B69" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="58" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="59" t="s">
+      <c r="D69" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="D62" s="58" t="s">
+      <c r="E69" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="F69" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="E62" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="F62" s="50" t="s">
+    </row>
+    <row r="70">
+      <c r="B70" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="58" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="B63" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="59" t="s">
+      <c r="D70" s="57" t="s">
         <v>216</v>
       </c>
-      <c r="D63" s="58" t="s">
+      <c r="E70" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="E63" s="53" t="s">
+      <c r="F70" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="F63" s="50" t="s">
+    </row>
+    <row r="71">
+      <c r="B71" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="58" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="59" t="s">
+      <c r="D71" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="D64" s="58" t="s">
+      <c r="E71" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="E64" s="53" t="s">
+      <c r="F71" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="F64" s="50" t="s">
+    </row>
+    <row r="72">
+      <c r="B72" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="58" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="59" t="s">
+      <c r="D72" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="D65" s="58" t="s">
+      <c r="E72" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="F72" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="E65" s="53" t="s">
+    </row>
+    <row r="73">
+      <c r="B73" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="F65" s="50" t="s">
+      <c r="D73" s="57" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" s="59" t="s">
+      <c r="E73" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="F73" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="D66" s="58" t="s">
+    </row>
+    <row r="74">
+      <c r="B74" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="58" t="s">
         <v>229</v>
       </c>
-      <c r="E66" s="53" t="s">
+      <c r="D74" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="F66" s="50" t="s">
+      <c r="E74" s="52" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" s="59" t="s">
+      <c r="F74" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="D67" s="58" t="s">
+    </row>
+    <row r="75">
+      <c r="B75" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="E67" s="53" t="s">
+      <c r="D75" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="F67" s="50" t="s">
+      <c r="E75" s="52" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" s="59" t="s">
+      <c r="F75" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D68" s="58" t="s">
+    </row>
+    <row r="76">
+      <c r="B76" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="E68" s="53" t="s">
+      <c r="D76" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="F68" s="50" t="s">
+      <c r="E76" s="52" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="B69" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" s="59" t="s">
+      <c r="F76" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="D69" s="58" t="s">
+    </row>
+    <row r="77">
+      <c r="B77" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="E69" s="53" t="s">
+      <c r="D77" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="F69" s="50" t="s">
+      <c r="E77" s="52" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="59" t="s">
+      <c r="F77" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="D70" s="58" t="s">
+    </row>
+    <row r="78">
+      <c r="B78" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="F70" s="50" t="s">
+      <c r="D78" s="57" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="B71" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="59" t="s">
+      <c r="E78" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="D71" s="58" t="s">
+      <c r="F78" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="E71" s="53" t="s">
+    </row>
+    <row r="79">
+      <c r="B79" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="F71" s="50" t="s">
+      <c r="D79" s="57" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="B72" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" s="59" t="s">
+      <c r="E79" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="D72" s="58" t="s">
+      <c r="F79" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="E72" s="53" t="s">
+    </row>
+    <row r="80">
+      <c r="B80" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="F72" s="50" t="s">
+      <c r="D80" s="57" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="59" t="s">
+      <c r="E80" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="D73" s="58" t="s">
+      <c r="F80" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="E73" s="53" t="s">
+    </row>
+    <row r="81">
+      <c r="B81" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="F73" s="50" t="s">
+      <c r="D81" s="57" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="59" t="s">
+      <c r="E81" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="F81" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="D74" s="58" t="s">
+    </row>
+    <row r="82">
+      <c r="B82" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="E74" s="53" t="s">
+      <c r="D82" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="F74" s="50" t="s">
+      <c r="E82" s="52" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="59" t="s">
+      <c r="F82" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="D75" s="58" t="s">
+    </row>
+    <row r="83">
+      <c r="B83" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="E75" s="53" t="s">
+      <c r="D83" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="F75" s="50" t="s">
+      <c r="E83" s="52" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" s="59" t="s">
+      <c r="F83" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="D76" s="58" t="s">
+    </row>
+    <row r="84">
+      <c r="B84" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="E76" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="F76" s="50" t="s">
+      <c r="D84" s="57" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="59" t="s">
+      <c r="E84" s="52" t="s">
         <v>270</v>
       </c>
-      <c r="D77" s="58" t="s">
+      <c r="F84" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="E77" s="53" t="s">
+    </row>
+    <row r="85">
+      <c r="B85" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="F77" s="50" t="s">
+      <c r="D85" s="57" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="59" t="s">
+      <c r="E85" s="52" t="s">
         <v>274</v>
       </c>
-      <c r="D78" s="58" t="s">
+      <c r="F85" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="E78" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="F78" s="50" t="s">
+    </row>
+    <row r="86">
+      <c r="B86" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="58" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="B79" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="59" t="s">
+      <c r="D86" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="D79" s="58" t="s">
+      <c r="E86" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="E79" s="53" t="s">
+      <c r="F86" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="F79" s="50" t="s">
+    </row>
+    <row r="87">
+      <c r="B87" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="58" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="B80" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" s="59" t="s">
+      <c r="D87" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="D80" s="58" t="s">
+      <c r="E87" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="F87" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="E80" s="53" t="s">
+    </row>
+    <row r="88">
+      <c r="B88" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="F80" s="50" t="s">
+      <c r="D88" s="57" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="B81" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="59" t="s">
+      <c r="E88" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="D81" s="58" t="s">
+      <c r="F88" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="E81" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="F81" s="50" t="s">
+    </row>
+    <row r="89">
+      <c r="B89" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="58" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="B82" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="59" t="s">
+      <c r="D89" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="D82" s="58" t="s">
+      <c r="E89" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="F89" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="E82" s="53" t="s">
+    </row>
+    <row r="90">
+      <c r="B90" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="F82" s="50" t="s">
+      <c r="D90" s="57" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="B83" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="59" t="s">
+      <c r="E90" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="D83" s="58" t="s">
+      <c r="F90" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="E83" s="53" t="s">
+    </row>
+    <row r="91">
+      <c r="B91" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="58" t="s">
         <v>294</v>
       </c>
-      <c r="F83" s="50" t="s">
+      <c r="D91" s="57" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="B84" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="59" t="s">
+      <c r="E91" s="52" t="s">
         <v>296</v>
       </c>
-      <c r="D84" s="58" t="s">
+      <c r="F91" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="E84" s="53" t="s">
+    </row>
+    <row r="92">
+      <c r="B92" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="F84" s="50" t="s">
+      <c r="D92" s="57" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="B85" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" s="59" t="s">
+      <c r="E92" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="D85" s="58" t="s">
+      <c r="F92" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="E85" s="53" t="s">
+    </row>
+    <row r="93">
+      <c r="B93" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="58" t="s">
         <v>302</v>
       </c>
-      <c r="F85" s="50" t="s">
+      <c r="D93" s="57" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="B86" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" s="59" t="s">
+      <c r="E93" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="F93" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="D86" s="58" t="s">
+    </row>
+    <row r="94">
+      <c r="B94" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="E86" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="F86" s="50" t="s">
+      <c r="D94" s="57" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="B87" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="59" t="s">
+      <c r="E94" s="52" t="s">
         <v>307</v>
       </c>
-      <c r="D87" s="58" t="s">
+      <c r="F94" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="E87" s="53" t="s">
+    </row>
+    <row r="95">
+      <c r="B95" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="58" t="s">
         <v>309</v>
       </c>
-      <c r="F87" s="50" t="s">
+      <c r="D95" s="57" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="B88" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" s="59" t="s">
+      <c r="E95" s="52" t="s">
         <v>311</v>
       </c>
-      <c r="D88" s="58" t="s">
+      <c r="F95" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="E88" s="53" t="s">
+    </row>
+    <row r="96">
+      <c r="B96" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="58" t="s">
         <v>313</v>
       </c>
-      <c r="F88" s="50" t="s">
+      <c r="D96" s="57" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="B89" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C89" s="59" t="s">
+      <c r="E96" s="52" t="s">
         <v>315</v>
       </c>
-      <c r="D89" s="58" t="s">
+      <c r="F96" s="49" t="s">
         <v>316</v>
       </c>
-      <c r="E89" s="53" t="s">
+    </row>
+    <row r="97">
+      <c r="B97" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="58" t="s">
         <v>317</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="D97" s="57" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="B90" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C90" s="59" t="s">
+      <c r="E97" s="52" t="s">
         <v>319</v>
       </c>
-      <c r="D90" s="58" t="s">
+      <c r="F97" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="E90" s="53" t="s">
+    </row>
+    <row r="98">
+      <c r="B98" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="58" t="s">
         <v>321</v>
       </c>
-      <c r="F90" s="50" t="s">
+      <c r="D98" s="57" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="B91" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" s="59" t="s">
+      <c r="E98" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="F98" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="D91" s="58" t="s">
+    </row>
+    <row r="99">
+      <c r="B99" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="E91" s="53" t="s">
+      <c r="D99" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="F91" s="50" t="s">
+      <c r="E99" s="52" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="B92" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" s="59" t="s">
+      <c r="F99" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="D92" s="58" t="s">
+    </row>
+    <row r="100">
+      <c r="B100" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="58" t="s">
         <v>328</v>
       </c>
-      <c r="E92" s="53" t="s">
+      <c r="D100" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="F92" s="50" t="s">
+      <c r="E100" s="52" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="B93" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" s="59" t="s">
+      <c r="F100" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="D93" s="58" t="s">
+    </row>
+    <row r="101">
+      <c r="B101" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="58" t="s">
         <v>332</v>
       </c>
-      <c r="E93" s="53" t="s">
+      <c r="D101" s="57" t="s">
         <v>333</v>
       </c>
-      <c r="F93" s="50" t="s">
+      <c r="E101" s="52" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="B94" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" s="59" t="s">
+      <c r="F101" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="D94" s="58" t="s">
+    </row>
+    <row r="102">
+      <c r="B102" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="E94" s="53" t="s">
+      <c r="D102" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="F94" s="50" t="s">
+      <c r="E102" s="52" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="B95" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" s="59" t="s">
+      <c r="F102" s="49" t="s">
         <v>339</v>
       </c>
-      <c r="D95" s="58" t="s">
+    </row>
+    <row r="103">
+      <c r="B103" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="58" t="s">
         <v>340</v>
       </c>
-      <c r="E95" s="53" t="s">
+      <c r="D103" s="57" t="s">
         <v>341</v>
       </c>
-      <c r="F95" s="50" t="s">
+      <c r="E103" s="52" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="B96" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" s="59" t="s">
+      <c r="F103" s="49" t="s">
         <v>343</v>
       </c>
-      <c r="D96" s="58" t="s">
+    </row>
+    <row r="104">
+      <c r="B104" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="58" t="s">
         <v>344</v>
       </c>
-      <c r="E96" s="53" t="s">
+      <c r="D104" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="F96" s="50" t="s">
+      <c r="E104" s="52" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="B97" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C97" s="59" t="s">
+      <c r="F104" s="49" t="s">
         <v>347</v>
       </c>
-      <c r="D97" s="58" t="s">
+    </row>
+    <row r="105">
+      <c r="B105" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" s="58" t="s">
         <v>348</v>
       </c>
-      <c r="E97" s="53" t="s">
+      <c r="D105" s="57" t="s">
         <v>349</v>
       </c>
-      <c r="F97" s="50" t="s">
+      <c r="E105" s="52" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="B98" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" s="59" t="s">
+      <c r="F105" s="49" t="s">
         <v>351</v>
       </c>
-      <c r="D98" s="58" t="s">
+    </row>
+    <row r="106">
+      <c r="B106" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="E98" s="53" t="s">
+      <c r="D106" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="F98" s="50" t="s">
+      <c r="E106" s="52" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="B99" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" s="59" t="s">
+      <c r="F106" s="49" t="s">
         <v>355</v>
       </c>
-      <c r="D99" s="58" t="s">
+    </row>
+    <row r="107">
+      <c r="B107" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="E99" s="53" t="s">
+      <c r="D107" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="F99" s="50" t="s">
+      <c r="E107" s="52" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="B100" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" s="59" t="s">
+      <c r="F107" s="49" t="s">
         <v>359</v>
       </c>
-      <c r="D100" s="59" t="s">
+    </row>
+    <row r="108">
+      <c r="B108" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="58" t="s">
         <v>360</v>
       </c>
-      <c r="E100" s="53" t="s">
+      <c r="D108" s="57" t="s">
         <v>361</v>
       </c>
-      <c r="F100" s="50" t="s">
+      <c r="E108" s="52" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="B101" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" s="59" t="s">
+      <c r="F108" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="D101" s="59" t="s">
+    </row>
+    <row r="109">
+      <c r="B109" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="58" t="s">
         <v>364</v>
       </c>
-      <c r="E101" s="53" t="s">
+      <c r="D109" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="F101" s="50" t="s">
+      <c r="E109" s="52" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="B102" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102" s="59" t="s">
+      <c r="F109" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="D102" s="59" t="s">
+    </row>
+    <row r="110">
+      <c r="B110" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="58" t="s">
         <v>368</v>
       </c>
-      <c r="E102" s="53" t="s">
+      <c r="D110" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="F102" s="50" t="s">
+      <c r="E110" s="52" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="B103" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" s="59" t="s">
+      <c r="F110" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="D103" s="59" t="s">
+    </row>
+    <row r="111">
+      <c r="B111" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="58" t="s">
         <v>372</v>
       </c>
-      <c r="E103" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="F103" s="50" t="s">
+      <c r="D111" s="57" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="B104" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" s="59" t="s">
+      <c r="E111" s="52" t="s">
         <v>374</v>
       </c>
-      <c r="D104" s="59" t="s">
+      <c r="F111" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="E104" s="53" t="s">
-        <v>375</v>
-      </c>
-      <c r="F104" s="50" t="s">
+    </row>
+    <row r="112">
+      <c r="B112" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="58" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="B105" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C105" s="59" t="s">
+      <c r="D112" s="58" t="s">
         <v>377</v>
       </c>
-      <c r="D105" s="59" t="s">
+      <c r="E112" s="52" t="s">
         <v>378</v>
       </c>
-      <c r="E105" s="53" t="s">
+      <c r="F112" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="F105" s="50" t="s">
+    </row>
+    <row r="113">
+      <c r="B113" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="58" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="B106" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C106" s="59" t="s">
+      <c r="D113" s="58" t="s">
         <v>381</v>
       </c>
-      <c r="D106" s="59" t="s">
+      <c r="E113" s="52" t="s">
         <v>382</v>
       </c>
-      <c r="E106" s="53" t="s">
+      <c r="F113" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="F106" s="50" t="s">
+    </row>
+    <row r="114">
+      <c r="B114" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="58" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="B107" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" s="59" t="s">
+      <c r="D114" s="58" t="s">
         <v>385</v>
       </c>
-      <c r="D107" s="59" t="s">
+      <c r="E114" s="52" t="s">
         <v>386</v>
       </c>
-      <c r="E107" s="53" t="s">
+      <c r="F114" s="49" t="s">
         <v>387</v>
       </c>
-      <c r="F107" s="50" t="s">
+    </row>
+    <row r="115">
+      <c r="B115" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="58" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="B108" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C108" s="59" t="s">
+      <c r="D115" s="58" t="s">
         <v>389</v>
       </c>
-      <c r="D108" s="59" t="s">
+      <c r="E115" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="F115" s="49" t="s">
         <v>390</v>
       </c>
-      <c r="E108" s="53" t="s">
+    </row>
+    <row r="116">
+      <c r="B116" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="58" t="s">
         <v>391</v>
       </c>
-      <c r="F108" s="50" t="s">
+      <c r="D116" s="58" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="109">
-      <c r="B109" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" s="59" t="s">
+      <c r="E116" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="F116" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="D109" s="59" t="s">
+    </row>
+    <row r="117">
+      <c r="B117" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="58" t="s">
         <v>394</v>
       </c>
-      <c r="E109" s="53" t="s">
+      <c r="D117" s="58" t="s">
         <v>395</v>
       </c>
-      <c r="F109" s="50" t="s">
+      <c r="E117" s="52" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="52" t="s">
+      <c r="F117" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="B110" s="60"/>
-      <c r="C110" s="59"/>
-      <c r="D110" s="58"/>
-    </row>
-    <row r="111">
-      <c r="B111" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C111" s="59" t="s">
+    </row>
+    <row r="118">
+      <c r="B118" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="58" t="s">
         <v>398</v>
       </c>
-      <c r="D111" s="58" t="s">
+      <c r="D118" s="58" t="s">
         <v>399</v>
       </c>
-      <c r="E111" s="53" t="s">
+      <c r="E118" s="52" t="s">
         <v>400</v>
       </c>
-      <c r="F111" s="50" t="s">
+      <c r="F118" s="49" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="112">
-      <c r="B112" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" s="59" t="s">
+    <row r="119">
+      <c r="B119" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="58" t="s">
         <v>402</v>
       </c>
-      <c r="D112" s="58" t="s">
+      <c r="D119" s="58" t="s">
         <v>403</v>
       </c>
-      <c r="E112" s="53" t="s">
+      <c r="E119" s="52" t="s">
         <v>404</v>
       </c>
-      <c r="F112" s="50" t="s">
+      <c r="F119" s="49" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="113">
-      <c r="B113" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" s="59" t="s">
+    <row r="120">
+      <c r="B120" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="58" t="s">
         <v>406</v>
       </c>
-      <c r="D113" s="58" t="s">
+      <c r="D120" s="58" t="s">
         <v>407</v>
       </c>
-      <c r="E113" s="53" t="s">
+      <c r="E120" s="52" t="s">
         <v>408</v>
       </c>
-      <c r="F113" s="50" t="s">
+      <c r="F120" s="49" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="114">
-      <c r="B114" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" s="59" t="s">
+    <row r="121">
+      <c r="B121" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="58" t="s">
         <v>410</v>
       </c>
-      <c r="D114" s="58" t="s">
+      <c r="D121" s="58" t="s">
         <v>411</v>
       </c>
-      <c r="E114" s="53" t="s">
-        <v>411</v>
-      </c>
-      <c r="F114" s="50" t="s">
+      <c r="E121" s="52" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="B115" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" s="59" t="s">
+      <c r="F121" s="49" t="s">
         <v>413</v>
       </c>
-      <c r="D115" s="58" t="s">
+    </row>
+    <row r="122">
+      <c r="B122" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="58" t="s">
         <v>414</v>
       </c>
-      <c r="E115" s="53" t="s">
+      <c r="D122" s="58" t="s">
         <v>415</v>
       </c>
-      <c r="F115" s="50" t="s">
+      <c r="E122" s="52" t="s">
+        <v>415</v>
+      </c>
+      <c r="F122" s="49" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="116">
-      <c r="B116" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" s="59" t="s">
+    <row r="123">
+      <c r="B123" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="58" t="s">
         <v>417</v>
       </c>
-      <c r="D116" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="E116" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="F116" s="50" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="B117" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" s="59" t="s">
+      <c r="D123" s="58" t="s">
         <v>418</v>
       </c>
-      <c r="D117" s="58"/>
-      <c r="E117" s="53" t="s">
+      <c r="E123" s="52" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="B118" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" s="59" t="s">
+      <c r="F123" s="49" t="s">
         <v>420</v>
       </c>
-      <c r="D118" s="58" t="s">
+    </row>
+    <row r="124">
+      <c r="A124" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="E118" s="53" t="s">
+      <c r="B124" s="59"/>
+      <c r="C124" s="58"/>
+      <c r="D124" s="57"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="58" t="s">
         <v>422</v>
       </c>
-      <c r="F118" s="50" t="s">
+      <c r="D125" s="57" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="B119" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" s="59" t="s">
+      <c r="E125" s="52" t="s">
         <v>424</v>
       </c>
-      <c r="D119" s="58" t="s">
+      <c r="F125" s="49" t="s">
         <v>425</v>
       </c>
-      <c r="E119" s="53" t="s">
+    </row>
+    <row r="126">
+      <c r="B126" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="58" t="s">
         <v>426</v>
       </c>
-      <c r="F119" s="50" t="s">
+      <c r="D126" s="57" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="B120" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C120" s="59" t="s">
+      <c r="E126" s="52" t="s">
         <v>428</v>
       </c>
-      <c r="D120" s="58" t="s">
+      <c r="F126" s="49" t="s">
         <v>429</v>
       </c>
-      <c r="E120" s="53" t="s">
+    </row>
+    <row r="127">
+      <c r="B127" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="58" t="s">
         <v>430</v>
       </c>
-      <c r="F120" s="50" t="s">
+      <c r="D127" s="57" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="B121" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" s="59" t="s">
+      <c r="E127" s="52" t="s">
         <v>432</v>
       </c>
-      <c r="D121" s="58" t="s">
+      <c r="F127" s="49" t="s">
         <v>433</v>
       </c>
-      <c r="E121" s="53" t="s">
+    </row>
+    <row r="128">
+      <c r="B128" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="58" t="s">
         <v>434</v>
       </c>
-      <c r="F121" s="50" t="s">
+      <c r="D128" s="57" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="B122" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C122" s="59" t="s">
+      <c r="E128" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="F128" s="49" t="s">
         <v>436</v>
       </c>
-      <c r="D122" s="58" t="s">
+    </row>
+    <row r="129">
+      <c r="B129" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="58" t="s">
         <v>437</v>
       </c>
-      <c r="E122" s="53" t="s">
-        <v>437</v>
-      </c>
-      <c r="F122" s="50" t="s">
+      <c r="D129" s="57" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="B123" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C123" s="59" t="s">
+      <c r="E129" s="52" t="s">
         <v>439</v>
       </c>
-      <c r="D123" s="59" t="s">
+      <c r="F129" s="49" t="s">
         <v>440</v>
       </c>
-      <c r="E123" s="53" t="s">
+    </row>
+    <row r="130">
+      <c r="B130" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="58" t="s">
         <v>441</v>
       </c>
-      <c r="F123" s="50" t="s">
+      <c r="D130" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="E130" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="F130" s="49" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="58" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="B124" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C124" s="59" t="s">
+      <c r="D131" s="57"/>
+      <c r="E131" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="D124" s="59" t="s">
+    </row>
+    <row r="132">
+      <c r="B132" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="58" t="s">
         <v>444</v>
       </c>
-      <c r="E124" s="53" t="s">
+      <c r="D132" s="57" t="s">
         <v>445</v>
       </c>
-      <c r="F124" s="50" t="s">
+      <c r="E132" s="52" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="B125" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C125" s="59" t="s">
+      <c r="F132" s="49" t="s">
         <v>447</v>
       </c>
-      <c r="D125" s="59" t="s">
+    </row>
+    <row r="133">
+      <c r="B133" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="E125" s="53" t="s">
-        <v>448</v>
-      </c>
-      <c r="F125" s="50" t="s">
+      <c r="D133" s="57" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="B126" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C126" s="59" t="s">
+      <c r="E133" s="52" t="s">
         <v>450</v>
       </c>
-      <c r="D126" s="59" t="s">
+      <c r="F133" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="E126" s="53" t="s">
-        <v>451</v>
-      </c>
-      <c r="F126" s="50" t="s">
+    </row>
+    <row r="134">
+      <c r="B134" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" s="58" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="B127" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C127" s="59" t="s">
+      <c r="D134" s="57" t="s">
         <v>453</v>
       </c>
-      <c r="D127" s="59" t="s">
+      <c r="E134" s="52" t="s">
         <v>454</v>
       </c>
-      <c r="E127" s="53" t="s">
-        <v>454</v>
-      </c>
-      <c r="F127" s="50" t="s">
+      <c r="F134" s="49" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="128">
-      <c r="B128" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C128" s="59" t="s">
+    <row r="135">
+      <c r="B135" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="D128" s="59" t="s">
+      <c r="D135" s="57" t="s">
         <v>457</v>
       </c>
-      <c r="E128" s="53" t="s">
+      <c r="E135" s="52" t="s">
         <v>458</v>
       </c>
-      <c r="F128" s="50" t="s">
+      <c r="F135" s="49" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="129">
-      <c r="B129" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C129" s="59" t="s">
+    <row r="136">
+      <c r="B136" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="58" t="s">
         <v>460</v>
       </c>
-      <c r="D129" s="59" t="s">
+      <c r="D136" s="57" t="s">
         <v>461</v>
       </c>
-      <c r="E129" s="53" t="s">
+      <c r="E136" s="52" t="s">
         <v>462</v>
       </c>
-      <c r="F129" s="50" t="s">
+      <c r="F136" s="49" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="130">
-      <c r="B130" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C130" s="59" t="s">
+    <row r="137">
+      <c r="B137" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="58" t="s">
         <v>464</v>
       </c>
-      <c r="D130" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="E130" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F130" s="50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="52" t="s">
-        <v>397</v>
-      </c>
-      <c r="B131" s="60"/>
-      <c r="C131" s="59"/>
-      <c r="D131" s="58"/>
-    </row>
-    <row r="132">
-      <c r="B132" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" s="59" t="s">
+      <c r="D137" s="57" t="s">
         <v>465</v>
       </c>
-      <c r="D132" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E132" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F132" s="50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="B133" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C133" s="59" t="s">
+      <c r="E137" s="52" t="s">
+        <v>465</v>
+      </c>
+      <c r="F137" s="49" t="s">
         <v>466</v>
       </c>
-      <c r="D133" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E133" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F133" s="50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="B134" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C134" s="59" t="s">
+    </row>
+    <row r="138">
+      <c r="B138" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="58" t="s">
         <v>467</v>
       </c>
-      <c r="D134" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E134" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F134" s="50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="B135" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C135" s="59" t="s">
+      <c r="D138" s="58" t="s">
         <v>468</v>
       </c>
-      <c r="D135" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E135" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F135" s="50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="B136" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C136" s="59" t="s">
+      <c r="E138" s="52" t="s">
         <v>469</v>
       </c>
-      <c r="D136" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E136" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F136" s="50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="B137" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C137" s="59" t="s">
+      <c r="F138" s="49" t="s">
         <v>470</v>
       </c>
-      <c r="D137" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E137" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F137" s="50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="B138" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C138" s="59" t="s">
+    </row>
+    <row r="139">
+      <c r="B139" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="D138" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E138" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F138" s="50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="B139" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C139" s="59" t="s">
+      <c r="D139" s="58" t="s">
         <v>472</v>
       </c>
-      <c r="D139" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E139" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F139" s="50" t="s">
-        <v>98</v>
+      <c r="E139" s="52" t="s">
+        <v>473</v>
+      </c>
+      <c r="F139" s="49" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="140">
-      <c r="B140" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C140" s="59" t="s">
-        <v>473</v>
+      <c r="B140" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" s="58" t="s">
+        <v>475</v>
       </c>
       <c r="D140" s="58" t="s">
-        <v>474</v>
-      </c>
-      <c r="E140" s="53" t="s">
-        <v>475</v>
-      </c>
-      <c r="F140" s="50" t="s">
         <v>476</v>
       </c>
+      <c r="E140" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="F140" s="49" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="141">
-      <c r="B141" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C141" s="59" t="s">
-        <v>477</v>
+      <c r="B141" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" s="58" t="s">
+        <v>478</v>
       </c>
       <c r="D141" s="58" t="s">
-        <v>478</v>
-      </c>
-      <c r="E141" s="53" t="s">
         <v>479</v>
       </c>
-      <c r="F141" s="50" t="s">
+      <c r="E141" s="52" t="s">
+        <v>479</v>
+      </c>
+      <c r="F141" s="49" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="142">
-      <c r="B142" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C142" s="59" t="s">
+      <c r="B142" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="58" t="s">
         <v>481</v>
       </c>
       <c r="D142" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E142" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F142" s="50" t="s">
-        <v>98</v>
+        <v>482</v>
+      </c>
+      <c r="E142" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="F142" s="49" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="143">
-      <c r="B143" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C143" s="59" t="s">
-        <v>482</v>
+      <c r="B143" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" s="58" t="s">
+        <v>484</v>
       </c>
       <c r="D143" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E143" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F143" s="50" t="s">
-        <v>98</v>
+        <v>485</v>
+      </c>
+      <c r="E143" s="52" t="s">
+        <v>486</v>
+      </c>
+      <c r="F143" s="49" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="144">
-      <c r="B144" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C144" s="59" t="s">
-        <v>483</v>
+      <c r="B144" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="58" t="s">
+        <v>488</v>
       </c>
       <c r="D144" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E144" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F144" s="50" t="s">
-        <v>98</v>
+        <v>489</v>
+      </c>
+      <c r="E144" s="52" t="s">
+        <v>490</v>
+      </c>
+      <c r="F144" s="49" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="145">
-      <c r="B145" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C145" s="59" t="s">
-        <v>484</v>
+      <c r="B145" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="58" t="s">
+        <v>492</v>
       </c>
       <c r="D145" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E145" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F145" s="50" t="s">
-        <v>98</v>
+        <v>493</v>
+      </c>
+      <c r="E145" s="52" t="s">
+        <v>494</v>
+      </c>
+      <c r="F145" s="49" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="146">
-      <c r="B146" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C146" s="59" t="s">
-        <v>485</v>
+      <c r="B146" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="58" t="s">
+        <v>496</v>
       </c>
       <c r="D146" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E146" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F146" s="50" t="s">
-        <v>98</v>
+        <v>86</v>
+      </c>
+      <c r="E146" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F146" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="147">
-      <c r="B147" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C147" s="59" t="s">
-        <v>486</v>
+      <c r="B147" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" s="58" t="s">
+        <v>497</v>
       </c>
       <c r="D147" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E147" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F147" s="50" t="s">
-        <v>98</v>
+        <v>86</v>
+      </c>
+      <c r="E147" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F147" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="148">
-      <c r="B148" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C148" s="59" t="s">
-        <v>487</v>
-      </c>
-      <c r="D148" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E148" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F148" s="50" t="s">
-        <v>98</v>
-      </c>
+      <c r="A148" s="51" t="s">
+        <v>421</v>
+      </c>
+      <c r="B148" s="59"/>
+      <c r="C148" s="58"/>
+      <c r="D148" s="57"/>
     </row>
     <row r="149">
-      <c r="B149" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C149" s="59" t="s">
-        <v>488</v>
-      </c>
-      <c r="D149" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E149" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F149" s="50" t="s">
-        <v>98</v>
+      <c r="B149" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="58" t="s">
+        <v>498</v>
+      </c>
+      <c r="D149" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E149" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F149" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="150">
-      <c r="B150" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C150" s="59" t="s">
-        <v>489</v>
-      </c>
-      <c r="D150" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E150" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F150" s="50" t="s">
-        <v>98</v>
+      <c r="B150" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" s="58" t="s">
+        <v>499</v>
+      </c>
+      <c r="D150" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E150" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F150" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="151">
-      <c r="B151" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C151" s="59" t="s">
-        <v>490</v>
-      </c>
-      <c r="D151" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E151" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F151" s="50" t="s">
-        <v>98</v>
+      <c r="B151" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" s="58" t="s">
+        <v>500</v>
+      </c>
+      <c r="D151" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E151" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F151" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="152">
-      <c r="B152" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C152" s="59" t="s">
-        <v>491</v>
-      </c>
-      <c r="D152" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E152" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F152" s="50" t="s">
-        <v>98</v>
+      <c r="B152" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" s="58" t="s">
+        <v>501</v>
+      </c>
+      <c r="D152" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E152" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F152" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="153">
-      <c r="B153" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C153" s="59" t="s">
-        <v>492</v>
-      </c>
-      <c r="D153" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E153" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F153" s="50" t="s">
-        <v>98</v>
+      <c r="B153" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" s="58" t="s">
+        <v>502</v>
+      </c>
+      <c r="D153" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E153" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F153" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="154">
-      <c r="B154" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C154" s="59" t="s">
-        <v>493</v>
-      </c>
-      <c r="D154" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E154" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F154" s="50" t="s">
-        <v>98</v>
+      <c r="B154" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="58" t="s">
+        <v>503</v>
+      </c>
+      <c r="D154" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E154" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F154" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="155">
-      <c r="B155" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C155" s="59" t="s">
-        <v>494</v>
-      </c>
-      <c r="D155" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E155" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F155" s="50" t="s">
-        <v>98</v>
+      <c r="B155" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" s="58" t="s">
+        <v>504</v>
+      </c>
+      <c r="D155" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E155" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F155" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="156">
-      <c r="B156" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C156" s="59" t="s">
-        <v>495</v>
-      </c>
-      <c r="D156" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E156" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F156" s="50" t="s">
-        <v>98</v>
+      <c r="B156" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" s="58" t="s">
+        <v>505</v>
+      </c>
+      <c r="D156" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E156" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F156" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="157">
-      <c r="B157" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C157" s="59" t="s">
-        <v>496</v>
-      </c>
-      <c r="D157" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E157" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F157" s="50" t="s">
-        <v>98</v>
+      <c r="B157" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="D157" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="E157" s="52" t="s">
+        <v>508</v>
+      </c>
+      <c r="F157" s="49" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="158">
-      <c r="B158" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C158" s="59" t="s">
-        <v>497</v>
-      </c>
-      <c r="D158" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E158" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F158" s="50" t="s">
-        <v>98</v>
+      <c r="B158" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" s="58" t="s">
+        <v>510</v>
+      </c>
+      <c r="D158" s="57" t="s">
+        <v>511</v>
+      </c>
+      <c r="E158" s="52" t="s">
+        <v>512</v>
+      </c>
+      <c r="F158" s="49" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="159">
-      <c r="B159" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C159" s="59" t="s">
-        <v>498</v>
-      </c>
-      <c r="D159" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E159" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F159" s="50" t="s">
-        <v>98</v>
+      <c r="B159" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="D159" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E159" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F159" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="160">
-      <c r="B160" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C160" s="59" t="s">
-        <v>499</v>
-      </c>
-      <c r="D160" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E160" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F160" s="50" t="s">
-        <v>98</v>
+      <c r="B160" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="D160" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E160" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F160" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="161">
-      <c r="B161" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C161" s="59" t="s">
-        <v>500</v>
-      </c>
-      <c r="D161" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E161" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F161" s="50" t="s">
-        <v>98</v>
+      <c r="B161" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="D161" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E161" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F161" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="162">
-      <c r="B162" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" s="59" t="s">
-        <v>501</v>
-      </c>
-      <c r="D162" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E162" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F162" s="50" t="s">
-        <v>98</v>
+      <c r="B162" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="58" t="s">
+        <v>517</v>
+      </c>
+      <c r="D162" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E162" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F162" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="163">
-      <c r="B163" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C163" s="59" t="s">
-        <v>502</v>
-      </c>
-      <c r="D163" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E163" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F163" s="50" t="s">
-        <v>98</v>
+      <c r="B163" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="58" t="s">
+        <v>518</v>
+      </c>
+      <c r="D163" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E163" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F163" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="164">
-      <c r="B164" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C164" s="59" t="s">
-        <v>503</v>
-      </c>
-      <c r="D164" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E164" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F164" s="50" t="s">
-        <v>98</v>
+      <c r="B164" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" s="58" t="s">
+        <v>519</v>
+      </c>
+      <c r="D164" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E164" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F164" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="165">
-      <c r="B165" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165" s="59" t="s">
-        <v>504</v>
-      </c>
-      <c r="D165" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E165" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F165" s="50" t="s">
-        <v>98</v>
+      <c r="B165" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" s="58" t="s">
+        <v>520</v>
+      </c>
+      <c r="D165" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E165" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F165" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="166">
-      <c r="B166" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C166" s="59" t="s">
-        <v>505</v>
-      </c>
-      <c r="D166" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E166" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F166" s="50" t="s">
-        <v>98</v>
+      <c r="B166" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" s="58" t="s">
+        <v>521</v>
+      </c>
+      <c r="D166" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E166" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F166" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="167">
-      <c r="B167" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C167" s="59" t="s">
-        <v>506</v>
-      </c>
-      <c r="D167" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E167" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F167" s="50" t="s">
-        <v>98</v>
+      <c r="B167" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" s="58" t="s">
+        <v>522</v>
+      </c>
+      <c r="D167" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E167" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F167" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="168">
-      <c r="B168" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C168" s="59" t="s">
-        <v>507</v>
-      </c>
-      <c r="D168" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E168" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F168" s="50" t="s">
-        <v>98</v>
+      <c r="B168" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="D168" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E168" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F168" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="169">
-      <c r="B169" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C169" s="59" t="s">
-        <v>508</v>
-      </c>
-      <c r="D169" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E169" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F169" s="50" t="s">
-        <v>98</v>
+      <c r="B169" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" s="58" t="s">
+        <v>524</v>
+      </c>
+      <c r="D169" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E169" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F169" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="170">
-      <c r="B170" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C170" s="59" t="s">
-        <v>509</v>
-      </c>
-      <c r="D170" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E170" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F170" s="50" t="s">
-        <v>98</v>
+      <c r="B170" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" s="58" t="s">
+        <v>525</v>
+      </c>
+      <c r="D170" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E170" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F170" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="171">
-      <c r="B171" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C171" s="59" t="s">
-        <v>510</v>
-      </c>
-      <c r="D171" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E171" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F171" s="50" t="s">
-        <v>98</v>
+      <c r="B171" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="58" t="s">
+        <v>526</v>
+      </c>
+      <c r="D171" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E171" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F171" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="172">
-      <c r="B172" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C172" s="59" t="s">
-        <v>511</v>
-      </c>
-      <c r="D172" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E172" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F172" s="50" t="s">
-        <v>98</v>
+      <c r="B172" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" s="58" t="s">
+        <v>527</v>
+      </c>
+      <c r="D172" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E172" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F172" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="173">
-      <c r="B173" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C173" s="59" t="s">
-        <v>512</v>
-      </c>
-      <c r="D173" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E173" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F173" s="50" t="s">
-        <v>98</v>
+      <c r="B173" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" s="58" t="s">
+        <v>528</v>
+      </c>
+      <c r="D173" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E173" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F173" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="174">
-      <c r="B174" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C174" s="59" t="s">
-        <v>513</v>
-      </c>
-      <c r="D174" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E174" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F174" s="50" t="s">
-        <v>98</v>
+      <c r="B174" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="58" t="s">
+        <v>529</v>
+      </c>
+      <c r="D174" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E174" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F174" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="175">
-      <c r="B175" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C175" s="59" t="s">
-        <v>514</v>
-      </c>
-      <c r="D175" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E175" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F175" s="50" t="s">
-        <v>98</v>
+      <c r="B175" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="58" t="s">
+        <v>530</v>
+      </c>
+      <c r="D175" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E175" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F175" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="176">
-      <c r="B176" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C176" s="59" t="s">
-        <v>515</v>
-      </c>
-      <c r="D176" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E176" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F176" s="50" t="s">
-        <v>98</v>
+      <c r="B176" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" s="58" t="s">
+        <v>531</v>
+      </c>
+      <c r="D176" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E176" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F176" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="177">
-      <c r="B177" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C177" s="59" t="s">
-        <v>516</v>
-      </c>
-      <c r="D177" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E177" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F177" s="50" t="s">
-        <v>98</v>
+      <c r="B177" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" s="58" t="s">
+        <v>532</v>
+      </c>
+      <c r="D177" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E177" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F177" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="178">
-      <c r="B178" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C178" s="59" t="s">
-        <v>517</v>
-      </c>
-      <c r="D178" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E178" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F178" s="50" t="s">
-        <v>98</v>
+      <c r="B178" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" s="58" t="s">
+        <v>533</v>
+      </c>
+      <c r="D178" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E178" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F178" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="179">
-      <c r="B179" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C179" s="59" t="s">
-        <v>518</v>
-      </c>
-      <c r="D179" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E179" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F179" s="50" t="s">
-        <v>98</v>
+      <c r="B179" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" s="58" t="s">
+        <v>534</v>
+      </c>
+      <c r="D179" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E179" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F179" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="180">
-      <c r="B180" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C180" s="59" t="s">
-        <v>519</v>
-      </c>
-      <c r="D180" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E180" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F180" s="50" t="s">
-        <v>98</v>
+      <c r="B180" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="D180" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E180" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F180" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="181">
-      <c r="B181" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C181" s="59" t="s">
-        <v>520</v>
-      </c>
-      <c r="D181" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E181" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F181" s="50" t="s">
-        <v>98</v>
+      <c r="B181" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" s="58" t="s">
+        <v>536</v>
+      </c>
+      <c r="D181" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E181" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F181" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="182">
-      <c r="B182" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C182" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="D182" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E182" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F182" s="50" t="s">
-        <v>98</v>
+      <c r="B182" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="D182" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E182" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F182" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="183">
-      <c r="B183" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C183" s="59" t="s">
-        <v>522</v>
-      </c>
-      <c r="D183" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E183" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F183" s="50" t="s">
-        <v>98</v>
+      <c r="B183" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="58" t="s">
+        <v>538</v>
+      </c>
+      <c r="D183" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E183" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F183" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="184">
-      <c r="B184" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C184" s="59" t="s">
-        <v>523</v>
-      </c>
-      <c r="D184" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E184" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F184" s="50" t="s">
-        <v>98</v>
+      <c r="B184" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="58" t="s">
+        <v>539</v>
+      </c>
+      <c r="D184" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E184" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F184" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="185">
-      <c r="B185" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C185" s="59" t="s">
-        <v>524</v>
-      </c>
-      <c r="D185" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E185" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F185" s="50" t="s">
-        <v>98</v>
+      <c r="B185" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" s="58" t="s">
+        <v>540</v>
+      </c>
+      <c r="D185" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E185" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F185" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="186">
-      <c r="B186" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C186" s="59" t="s">
-        <v>525</v>
-      </c>
-      <c r="D186" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E186" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F186" s="50" t="s">
-        <v>98</v>
+      <c r="B186" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" s="58" t="s">
+        <v>541</v>
+      </c>
+      <c r="D186" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E186" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F186" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="187">
-      <c r="B187" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C187" s="59" t="s">
-        <v>526</v>
-      </c>
-      <c r="D187" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E187" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F187" s="50" t="s">
-        <v>98</v>
+      <c r="B187" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="D187" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E187" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F187" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="188">
-      <c r="B188" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C188" s="59" t="s">
-        <v>527</v>
-      </c>
-      <c r="D188" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E188" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F188" s="50" t="s">
-        <v>98</v>
+      <c r="B188" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" s="58" t="s">
+        <v>543</v>
+      </c>
+      <c r="D188" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E188" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F188" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="189">
-      <c r="B189" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C189" s="59" t="s">
-        <v>528</v>
-      </c>
-      <c r="D189" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E189" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F189" s="50" t="s">
-        <v>98</v>
+      <c r="B189" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" s="58" t="s">
+        <v>544</v>
+      </c>
+      <c r="D189" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E189" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F189" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="190">
-      <c r="B190" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C190" s="59" t="s">
-        <v>529</v>
-      </c>
-      <c r="D190" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E190" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F190" s="50" t="s">
-        <v>98</v>
+      <c r="B190" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="D190" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E190" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F190" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="191">
-      <c r="B191" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C191" s="59" t="s">
-        <v>530</v>
-      </c>
-      <c r="D191" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E191" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F191" s="50" t="s">
-        <v>98</v>
+      <c r="B191" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" s="58" t="s">
+        <v>546</v>
+      </c>
+      <c r="D191" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E191" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F191" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="192">
-      <c r="B192" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C192" s="59" t="s">
-        <v>531</v>
-      </c>
-      <c r="D192" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E192" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F192" s="50" t="s">
-        <v>98</v>
+      <c r="B192" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" s="58" t="s">
+        <v>547</v>
+      </c>
+      <c r="D192" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E192" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F192" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="193">
-      <c r="B193" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C193" s="59" t="s">
-        <v>532</v>
-      </c>
-      <c r="D193" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E193" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F193" s="50" t="s">
-        <v>98</v>
+      <c r="B193" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" s="58" t="s">
+        <v>548</v>
+      </c>
+      <c r="D193" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E193" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F193" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="194">
-      <c r="B194" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C194" s="59" t="s">
-        <v>533</v>
-      </c>
-      <c r="D194" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E194" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F194" s="50" t="s">
-        <v>98</v>
+      <c r="B194" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" s="58" t="s">
+        <v>549</v>
+      </c>
+      <c r="D194" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E194" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F194" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="195">
-      <c r="B195" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C195" s="59" t="s">
-        <v>534</v>
-      </c>
-      <c r="D195" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E195" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F195" s="50" t="s">
-        <v>98</v>
+      <c r="B195" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" s="58" t="s">
+        <v>550</v>
+      </c>
+      <c r="D195" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E195" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F195" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="196">
-      <c r="B196" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C196" s="59" t="s">
-        <v>535</v>
-      </c>
-      <c r="D196" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E196" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F196" s="50" t="s">
-        <v>98</v>
+      <c r="B196" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" s="58" t="s">
+        <v>551</v>
+      </c>
+      <c r="D196" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E196" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F196" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="197">
-      <c r="B197" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C197" s="59" t="s">
-        <v>536</v>
-      </c>
-      <c r="D197" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E197" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F197" s="50" t="s">
-        <v>98</v>
+      <c r="B197" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" s="58" t="s">
+        <v>552</v>
+      </c>
+      <c r="D197" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E197" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F197" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="198">
-      <c r="B198" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C198" s="59" t="s">
-        <v>537</v>
-      </c>
-      <c r="D198" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="E198" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F198" s="50" t="s">
-        <v>98</v>
+      <c r="B198" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" s="58" t="s">
+        <v>553</v>
+      </c>
+      <c r="D198" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E198" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F198" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="52" t="s">
-        <v>397</v>
-      </c>
-      <c r="B199" s="60"/>
-      <c r="C199" s="59"/>
-      <c r="D199" s="58"/>
-    </row>
-    <row r="200" ht="25.5">
-      <c r="B200" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C200" s="59" t="s">
-        <v>538</v>
-      </c>
-      <c r="D200" s="54" t="s">
-        <v>539</v>
-      </c>
-      <c r="E200" s="53" t="s">
-        <v>540</v>
-      </c>
-      <c r="F200" s="50" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="201" ht="25.5">
-      <c r="B201" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C201" s="59" t="s">
-        <v>542</v>
-      </c>
-      <c r="D201" s="54" t="s">
-        <v>543</v>
-      </c>
-      <c r="E201" s="53" t="s">
-        <v>544</v>
-      </c>
-      <c r="F201" s="50" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="202" ht="25.5">
-      <c r="B202" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C202" s="59" t="s">
-        <v>546</v>
-      </c>
-      <c r="D202" s="54" t="s">
-        <v>547</v>
-      </c>
-      <c r="E202" s="53" t="s">
-        <v>548</v>
-      </c>
-      <c r="F202" s="50" t="s">
-        <v>549</v>
+      <c r="B199" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" s="58" t="s">
+        <v>554</v>
+      </c>
+      <c r="D199" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E199" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F199" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" s="58" t="s">
+        <v>555</v>
+      </c>
+      <c r="D200" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E200" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F200" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="B201" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" s="58" t="s">
+        <v>556</v>
+      </c>
+      <c r="D201" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E201" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F201" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="B202" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" s="58" t="s">
+        <v>557</v>
+      </c>
+      <c r="D202" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E202" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F202" s="49" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="203">
-      <c r="B203" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C203" s="59" t="s">
-        <v>550</v>
-      </c>
-      <c r="E203" s="53" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="204" ht="25.5">
-      <c r="B204" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C204" s="59" t="s">
-        <v>551</v>
-      </c>
-      <c r="D204" s="54" t="s">
-        <v>552</v>
-      </c>
-      <c r="E204" s="53" t="s">
-        <v>553</v>
-      </c>
-      <c r="F204" s="50" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="205" ht="25.5">
-      <c r="B205" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C205" s="59" t="s">
-        <v>555</v>
-      </c>
-      <c r="D205" s="54" t="s">
-        <v>556</v>
-      </c>
-      <c r="E205" s="53" t="s">
-        <v>557</v>
-      </c>
-      <c r="F205" s="50" t="s">
+      <c r="B203" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" s="58" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="206" ht="25.5">
-      <c r="B206" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C206" s="59" t="s">
+      <c r="D203" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E203" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F203" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="B204" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" s="58" t="s">
         <v>559</v>
       </c>
-      <c r="D206" s="54" t="s">
+      <c r="D204" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E204" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F204" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" s="58" t="s">
         <v>560</v>
       </c>
-      <c r="E206" s="53" t="s">
+      <c r="D205" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E205" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F205" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" s="58" t="s">
         <v>561</v>
       </c>
-      <c r="F206" s="50" t="s">
+      <c r="D206" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E206" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F206" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="B207" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" s="58" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="207">
-      <c r="B207" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C207" s="59" t="s">
+      <c r="D207" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E207" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F207" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="B208" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" s="58" t="s">
         <v>563</v>
       </c>
-      <c r="E207" s="53" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="B208" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C208" s="59" t="s">
+      <c r="D208" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E208" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F208" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" s="58" t="s">
         <v>564</v>
       </c>
-      <c r="E208" s="53" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="B209" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C209" s="59" t="s">
+      <c r="D209" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E209" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F209" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" s="58" t="s">
         <v>565</v>
       </c>
-      <c r="E209" s="53" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="210" ht="25.5">
-      <c r="B210" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C210" s="59" t="s">
+      <c r="D210" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E210" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F210" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="B211" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" s="58" t="s">
         <v>566</v>
       </c>
-      <c r="D210" s="54" t="s">
+      <c r="D211" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E211" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F211" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" s="58" t="s">
         <v>567</v>
       </c>
-      <c r="E210" s="53" t="s">
+      <c r="D212" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E212" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F212" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="B213" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="F210" s="50" t="s">
+      <c r="D213" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E213" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F213" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="B214" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" s="58" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="211" ht="25.5">
-      <c r="B211" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C211" s="59" t="s">
+      <c r="D214" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E214" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F214" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" s="58" t="s">
         <v>570</v>
       </c>
-      <c r="D211" s="54" t="s">
+      <c r="D215" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E215" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F215" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="B216" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216" s="58" t="s">
         <v>571</v>
       </c>
-      <c r="E211" s="53" t="s">
+      <c r="D216" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E216" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F216" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="B217" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217" s="58" t="s">
         <v>572</v>
       </c>
-      <c r="F211" s="50" t="s">
+      <c r="D217" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E217" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F217" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218" s="58" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="212" ht="25.5">
-      <c r="B212" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C212" s="59" t="s">
+      <c r="D218" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E218" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F218" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="B219" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C219" s="58" t="s">
         <v>574</v>
       </c>
-      <c r="D212" s="54" t="s">
+      <c r="D219" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E219" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F219" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C220" s="58" t="s">
         <v>575</v>
       </c>
-      <c r="E212" s="53" t="s">
+      <c r="D220" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E220" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F220" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C221" s="58" t="s">
         <v>576</v>
       </c>
-      <c r="F212" s="50" t="s">
+      <c r="D221" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E221" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F221" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="B222" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C222" s="58" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="213" ht="25.5">
-      <c r="B213" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C213" s="59" t="s">
+      <c r="D222" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E222" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F222" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="B223" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223" s="58" t="s">
         <v>578</v>
       </c>
-      <c r="D213" s="54" t="s">
+      <c r="D223" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E223" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F223" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224" s="58" t="s">
         <v>579</v>
       </c>
-      <c r="E213" s="53" t="s">
+      <c r="D224" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E224" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F224" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C225" s="58" t="s">
         <v>580</v>
       </c>
-      <c r="F213" s="50" t="s">
+      <c r="D225" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E225" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F225" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="B226" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226" s="58" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="214" ht="135">
-      <c r="B214" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C214" s="59" t="s">
+      <c r="D226" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E226" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F226" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="B227" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C227" s="58" t="s">
         <v>582</v>
       </c>
-      <c r="D214" s="54" t="s">
+      <c r="D227" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E227" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F227" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="B228" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228" s="58" t="s">
         <v>583</v>
       </c>
-      <c r="E214" s="61" t="s">
+      <c r="D228" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E228" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F228" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="B229" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229" s="58" t="s">
         <v>584</v>
       </c>
-      <c r="F214" s="50" t="s">
+      <c r="D229" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E229" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F229" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230" s="58" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="215" ht="25.5">
-      <c r="B215" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C215" s="59" t="s">
+      <c r="D230" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E230" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F230" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="B231" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231" s="58" t="s">
         <v>586</v>
       </c>
-      <c r="D215" s="54" t="s">
+      <c r="D231" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E231" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F231" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="B232" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C232" s="58" t="s">
         <v>587</v>
       </c>
-      <c r="E215" s="53" t="s">
+      <c r="D232" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E232" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F232" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="B233" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C233" s="58" t="s">
         <v>588</v>
       </c>
-      <c r="F215" s="50" t="s">
+      <c r="D233" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E233" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F233" s="49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="51" t="s">
+        <v>421</v>
+      </c>
+      <c r="B234" s="59"/>
+      <c r="C234" s="58"/>
+      <c r="D234" s="57"/>
+    </row>
+    <row r="235" ht="25.5">
+      <c r="B235" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235" s="58" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="216">
-      <c r="B216" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C216" s="59" t="s">
+      <c r="D235" s="53" t="s">
         <v>590</v>
       </c>
-      <c r="D216" s="54" t="s">
+      <c r="E235" s="52" t="s">
         <v>591</v>
       </c>
-      <c r="E216" s="53" t="s">
+      <c r="F235" s="49" t="s">
         <v>592</v>
       </c>
-      <c r="F216" s="50" t="s">
+    </row>
+    <row r="236" ht="25.5">
+      <c r="B236" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C236" s="58" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="217" ht="81">
-      <c r="B217" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C217" s="59" t="s">
+      <c r="D236" s="53" t="s">
         <v>594</v>
       </c>
-      <c r="D217" s="54" t="s">
+      <c r="E236" s="52" t="s">
         <v>595</v>
       </c>
-      <c r="E217" s="61" t="s">
+      <c r="F236" s="49" t="s">
         <v>596</v>
       </c>
-      <c r="F217" s="50" t="s">
+    </row>
+    <row r="237" ht="25.5">
+      <c r="B237" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C237" s="58" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="218">
-      <c r="B218" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C218" s="59" t="s">
+      <c r="D237" s="53" t="s">
         <v>598</v>
       </c>
-      <c r="D218" s="54" t="s">
+      <c r="E237" s="52" t="s">
         <v>599</v>
       </c>
-      <c r="E218" s="53" t="s">
+      <c r="F237" s="49" t="s">
         <v>600</v>
       </c>
-      <c r="F218" s="50" t="s">
+    </row>
+    <row r="238">
+      <c r="B238" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238" s="58" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="219" ht="25.5">
-      <c r="B219" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C219" s="59" t="s">
+      <c r="E238" s="52" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="239" ht="25.5">
+      <c r="B239" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C239" s="58" t="s">
         <v>602</v>
       </c>
-      <c r="D219" s="54" t="s">
+      <c r="D239" s="53" t="s">
         <v>603</v>
       </c>
-      <c r="E219" s="53" t="s">
+      <c r="E239" s="52" t="s">
         <v>604</v>
       </c>
-      <c r="F219" s="50" t="s">
+      <c r="F239" s="49" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="220">
-      <c r="B220" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C220" s="59" t="s">
+    <row r="240" ht="25.5">
+      <c r="B240" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C240" s="58" t="s">
         <v>606</v>
       </c>
-      <c r="D220" s="54" t="s">
+      <c r="D240" s="53" t="s">
         <v>607</v>
       </c>
-      <c r="E220" s="53" t="s">
+      <c r="E240" s="52" t="s">
         <v>608</v>
       </c>
-      <c r="F220" s="50" t="s">
+      <c r="F240" s="49" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="221" ht="38.25">
-      <c r="B221" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C221" s="59" t="s">
+    <row r="241" ht="25.5">
+      <c r="B241" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C241" s="58" t="s">
         <v>610</v>
       </c>
-      <c r="D221" s="54" t="s">
+      <c r="D241" s="53" t="s">
         <v>611</v>
       </c>
-      <c r="E221" s="53" t="s">
+      <c r="E241" s="52" t="s">
         <v>612</v>
       </c>
-      <c r="F221" s="50" t="s">
+      <c r="F241" s="49" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="222" ht="25.5">
-      <c r="B222" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C222" s="59" t="s">
+    <row r="242" ht="25.5">
+      <c r="B242" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C242" s="58" t="s">
         <v>614</v>
       </c>
-      <c r="D222" s="54" t="s">
+      <c r="D242" s="53" t="s">
         <v>615</v>
       </c>
-      <c r="E222" s="53" t="s">
+      <c r="E242" s="52" t="s">
         <v>616</v>
       </c>
-      <c r="F222" s="50" t="s">
+      <c r="F242" s="49" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="223">
-      <c r="B223" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C223" s="59" t="s">
+    <row r="243">
+      <c r="B243" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C243" s="58" t="s">
         <v>618</v>
       </c>
-      <c r="D223" s="54" t="s">
+      <c r="E243" s="52" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="B244" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244" s="58" t="s">
         <v>619</v>
       </c>
-      <c r="E223" s="53" t="s">
+      <c r="E244" s="52" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="245" ht="25.5">
+      <c r="B245" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245" s="58" t="s">
         <v>620</v>
       </c>
-      <c r="F223" s="50" t="s">
+      <c r="D245" s="53" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="224" ht="25.5">
-      <c r="B224" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C224" s="59" t="s">
+      <c r="E245" s="52" t="s">
         <v>622</v>
       </c>
-      <c r="D224" s="54" t="s">
+      <c r="F245" s="49" t="s">
         <v>623</v>
       </c>
-      <c r="E224" s="53" t="s">
+    </row>
+    <row r="246" ht="25.5">
+      <c r="B246" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246" s="58" t="s">
         <v>624</v>
       </c>
-      <c r="F224" s="50" t="s">
+      <c r="D246" s="53" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="225" ht="81">
-      <c r="B225" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C225" s="59" t="s">
+      <c r="E246" s="52" t="s">
         <v>626</v>
       </c>
-      <c r="D225" s="54" t="s">
+      <c r="F246" s="49" t="s">
         <v>627</v>
       </c>
-      <c r="E225" s="61" t="s">
+    </row>
+    <row r="247" ht="25.5">
+      <c r="B247" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C247" s="58" t="s">
         <v>628</v>
       </c>
-      <c r="F225" s="50" t="s">
+      <c r="D247" s="53" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="226" ht="25.5">
-      <c r="B226" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C226" s="59" t="s">
+      <c r="E247" s="52" t="s">
         <v>630</v>
       </c>
-      <c r="D226" s="54" t="s">
+      <c r="F247" s="49" t="s">
         <v>631</v>
       </c>
-      <c r="E226" s="53" t="s">
+    </row>
+    <row r="248" ht="25.5">
+      <c r="B248" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248" s="58" t="s">
         <v>632</v>
       </c>
-      <c r="F226" s="50" t="s">
+      <c r="D248" s="53" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="227" ht="25.5">
-      <c r="B227" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C227" s="59" t="s">
+      <c r="E248" s="52" t="s">
         <v>634</v>
       </c>
-      <c r="D227" s="54" t="s">
+      <c r="F248" s="49" t="s">
         <v>635</v>
       </c>
-      <c r="E227" s="53" t="s">
+    </row>
+    <row r="249" ht="162">
+      <c r="B249" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249" s="58" t="s">
         <v>636</v>
       </c>
-      <c r="F227" s="50" t="s">
+      <c r="D249" s="53" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="228" ht="25.5">
-      <c r="B228" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C228" s="59" t="s">
+      <c r="E249" s="60" t="s">
         <v>638</v>
       </c>
-      <c r="D228" s="54" t="s">
+      <c r="F249" s="49" t="s">
         <v>639</v>
       </c>
-      <c r="E228" s="53" t="s">
+    </row>
+    <row r="250" ht="25.5">
+      <c r="B250" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C250" s="58" t="s">
         <v>640</v>
       </c>
-      <c r="F228" s="50" t="s">
+      <c r="D250" s="53" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="229" ht="25.5">
-      <c r="B229" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C229" s="59" t="s">
+      <c r="E250" s="52" t="s">
         <v>642</v>
       </c>
-      <c r="D229" s="54" t="s">
+      <c r="F250" s="49" t="s">
         <v>643</v>
       </c>
-      <c r="E229" s="53" t="s">
+    </row>
+    <row r="251">
+      <c r="B251" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251" s="58" t="s">
         <v>644</v>
       </c>
-      <c r="F229" s="50" t="s">
+      <c r="D251" s="53" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="230" ht="25.5">
-      <c r="B230" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C230" s="59" t="s">
+      <c r="E251" s="52" t="s">
         <v>646</v>
       </c>
-      <c r="D230" s="54" t="s">
+      <c r="F251" s="49" t="s">
         <v>647</v>
       </c>
-      <c r="E230" s="53" t="s">
+    </row>
+    <row r="252" ht="81">
+      <c r="B252" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252" s="58" t="s">
         <v>648</v>
       </c>
-      <c r="F230" s="50" t="s">
+      <c r="D252" s="53" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="231" ht="67.5">
-      <c r="B231" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C231" s="59" t="s">
+      <c r="E252" s="60" t="s">
         <v>650</v>
       </c>
-      <c r="D231" s="54" t="s">
+      <c r="F252" s="49" t="s">
         <v>651</v>
       </c>
-      <c r="E231" s="61" t="s">
+    </row>
+    <row r="253">
+      <c r="B253" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C253" s="58" t="s">
         <v>652</v>
       </c>
-      <c r="F231" s="50" t="s">
+      <c r="D253" s="53" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="232" ht="94.5">
-      <c r="B232" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C232" s="59" t="s">
+      <c r="E253" s="52" t="s">
         <v>654</v>
       </c>
-      <c r="D232" s="54" t="s">
+      <c r="F253" s="49" t="s">
         <v>655</v>
       </c>
-      <c r="E232" s="61" t="s">
+    </row>
+    <row r="254" ht="25.5">
+      <c r="B254" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C254" s="58" t="s">
         <v>656</v>
       </c>
-      <c r="F232" s="50" t="s">
+      <c r="D254" s="53" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="233">
-      <c r="B233" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C233" s="59" t="s">
+      <c r="E254" s="52" t="s">
         <v>658</v>
       </c>
-      <c r="D233" s="54" t="s">
+      <c r="F254" s="49" t="s">
         <v>659</v>
       </c>
-      <c r="E233" s="53" t="s">
+    </row>
+    <row r="255">
+      <c r="B255" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C255" s="58" t="s">
         <v>660</v>
       </c>
-      <c r="F233" s="50" t="s">
+      <c r="D255" s="53" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="234">
-      <c r="B234" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C234" s="59" t="s">
+      <c r="E255" s="52" t="s">
         <v>662</v>
       </c>
-      <c r="D234" s="54" t="s">
+      <c r="F255" s="49" t="s">
         <v>663</v>
       </c>
-      <c r="E234" s="53" t="s">
+    </row>
+    <row r="256" ht="38.25">
+      <c r="B256" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C256" s="58" t="s">
         <v>664</v>
       </c>
-      <c r="F234" s="50" t="s">
+      <c r="D256" s="53" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="235">
-      <c r="B235" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C235" s="59" t="s">
+      <c r="E256" s="52" t="s">
         <v>666</v>
       </c>
-      <c r="D235" s="54" t="s">
+      <c r="F256" s="49" t="s">
         <v>667</v>
       </c>
-      <c r="E235" s="53" t="s">
+    </row>
+    <row r="257" ht="25.5">
+      <c r="B257" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C257" s="58" t="s">
         <v>668</v>
       </c>
-      <c r="F235" s="50" t="s">
+      <c r="D257" s="53" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="236" ht="108">
-      <c r="B236" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C236" s="59" t="s">
+      <c r="E257" s="52" t="s">
         <v>670</v>
       </c>
-      <c r="D236" s="54" t="s">
+      <c r="F257" s="49" t="s">
         <v>671</v>
       </c>
-      <c r="E236" s="61" t="s">
+    </row>
+    <row r="258">
+      <c r="B258" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C258" s="58" t="s">
         <v>672</v>
       </c>
-      <c r="F236" s="50" t="s">
+      <c r="D258" s="53" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="237" ht="135">
-      <c r="B237" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C237" s="59" t="s">
+      <c r="E258" s="52" t="s">
         <v>674</v>
       </c>
-      <c r="D237" s="54" t="s">
+      <c r="F258" s="49" t="s">
         <v>675</v>
       </c>
-      <c r="E237" s="61" t="s">
+    </row>
+    <row r="259" ht="25.5">
+      <c r="B259" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C259" s="58" t="s">
         <v>676</v>
       </c>
-      <c r="F237" s="50" t="s">
+      <c r="D259" s="53" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="238" ht="67.5">
-      <c r="B238" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C238" s="59" t="s">
+      <c r="E259" s="52" t="s">
         <v>678</v>
       </c>
-      <c r="D238" s="54" t="s">
+      <c r="F259" s="49" t="s">
         <v>679</v>
       </c>
-      <c r="E238" s="61" t="s">
+    </row>
+    <row r="260" ht="81">
+      <c r="B260" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C260" s="58" t="s">
         <v>680</v>
       </c>
-      <c r="F238" s="50" t="s">
+      <c r="D260" s="53" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="239" ht="67.5">
-      <c r="B239" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C239" s="59" t="s">
+      <c r="E260" s="60" t="s">
         <v>682</v>
       </c>
-      <c r="D239" s="54" t="s">
+      <c r="F260" s="49" t="s">
         <v>683</v>
       </c>
-      <c r="E239" s="61" t="s">
+    </row>
+    <row r="261" ht="25.5">
+      <c r="B261" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C261" s="58" t="s">
         <v>684</v>
       </c>
-      <c r="F239" s="50" t="s">
+      <c r="D261" s="53" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="240" ht="135">
-      <c r="B240" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C240" s="59" t="s">
+      <c r="E261" s="52" t="s">
         <v>686</v>
       </c>
-      <c r="D240" s="54" t="s">
+      <c r="F261" s="49" t="s">
         <v>687</v>
       </c>
-      <c r="E240" s="61" t="s">
+    </row>
+    <row r="262" ht="25.5">
+      <c r="B262" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C262" s="58" t="s">
         <v>688</v>
       </c>
-      <c r="F240" s="50" t="s">
+      <c r="D262" s="53" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="241" ht="94.5">
-      <c r="B241" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C241" s="59" t="s">
+      <c r="E262" s="52" t="s">
         <v>690</v>
       </c>
-      <c r="D241" s="58" t="s">
+      <c r="F262" s="49" t="s">
         <v>691</v>
       </c>
-      <c r="E241" s="61" t="s">
+    </row>
+    <row r="263" ht="25.5">
+      <c r="B263" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C263" s="58" t="s">
         <v>692</v>
       </c>
-      <c r="F241" s="50" t="s">
+      <c r="D263" s="53" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="242" ht="25.5">
-      <c r="B242" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C242" s="59" t="s">
+      <c r="E263" s="52" t="s">
         <v>694</v>
       </c>
-      <c r="D242" s="58" t="s">
+      <c r="F263" s="49" t="s">
         <v>695</v>
       </c>
-      <c r="E242" s="53" t="s">
+    </row>
+    <row r="264" ht="25.5">
+      <c r="B264" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C264" s="58" t="s">
         <v>696</v>
       </c>
-      <c r="F242" s="50" t="s">
+      <c r="D264" s="53" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="243" ht="25.5">
-      <c r="B243" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C243" s="59" t="s">
+      <c r="E264" s="52" t="s">
         <v>698</v>
       </c>
-      <c r="D243" s="58" t="s">
+      <c r="F264" s="49" t="s">
         <v>699</v>
       </c>
-      <c r="E243" s="53" t="s">
+    </row>
+    <row r="265" ht="25.5">
+      <c r="B265" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C265" s="58" t="s">
         <v>700</v>
       </c>
-      <c r="F243" s="50" t="s">
+      <c r="D265" s="53" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="244">
-      <c r="B244" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C244" s="59" t="s">
+      <c r="E265" s="52" t="s">
         <v>702</v>
       </c>
-      <c r="D244" s="58" t="s">
+      <c r="F265" s="49" t="s">
         <v>703</v>
       </c>
-      <c r="E244" s="53" t="s">
+    </row>
+    <row r="266" ht="67.5">
+      <c r="B266" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C266" s="58" t="s">
         <v>704</v>
       </c>
-      <c r="F244" s="50" t="s">
+      <c r="D266" s="53" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="245">
-      <c r="B245" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C245" s="59" t="s">
+      <c r="E266" s="60" t="s">
         <v>706</v>
       </c>
-      <c r="D245" s="58" t="s">
+      <c r="F266" s="49" t="s">
         <v>707</v>
       </c>
-      <c r="E245" s="53" t="s">
+    </row>
+    <row r="267" ht="94.5">
+      <c r="B267" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C267" s="58" t="s">
         <v>708</v>
       </c>
-      <c r="F245" s="50" t="s">
+      <c r="D267" s="53" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="246" ht="25.5">
-      <c r="B246" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C246" s="59" t="s">
+      <c r="E267" s="60" t="s">
         <v>710</v>
       </c>
-      <c r="D246" s="58" t="s">
+      <c r="F267" s="49" t="s">
         <v>711</v>
       </c>
-      <c r="E246" s="53" t="s">
+    </row>
+    <row r="268" ht="25.5">
+      <c r="B268" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C268" s="58" t="s">
         <v>712</v>
       </c>
-      <c r="F246" s="50" t="s">
+      <c r="D268" s="53" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="247" ht="25.5">
-      <c r="B247" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C247" s="59" t="s">
+      <c r="E268" s="52" t="s">
         <v>714</v>
       </c>
-      <c r="D247" s="58" t="s">
+      <c r="F268" s="49" t="s">
         <v>715</v>
       </c>
-      <c r="E247" s="53" t="s">
+    </row>
+    <row r="269">
+      <c r="B269" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269" s="58" t="s">
         <v>716</v>
       </c>
-      <c r="F247" s="50" t="s">
+      <c r="D269" s="53" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="248">
-      <c r="B248" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C248" s="59" t="s">
+      <c r="E269" s="52" t="s">
         <v>718</v>
       </c>
-      <c r="D248" s="58" t="s">
+      <c r="F269" s="49" t="s">
         <v>719</v>
       </c>
-      <c r="E248" s="53" t="s">
+    </row>
+    <row r="270">
+      <c r="B270" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C270" s="58" t="s">
         <v>720</v>
       </c>
-      <c r="F248" s="50" t="s">
+      <c r="D270" s="53" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="249">
-      <c r="B249" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C249" s="59" t="s">
+      <c r="E270" s="52" t="s">
         <v>722</v>
       </c>
-      <c r="D249" s="58" t="s">
+      <c r="F270" s="49" t="s">
         <v>723</v>
       </c>
-      <c r="E249" s="53" t="s">
+    </row>
+    <row r="271" ht="108">
+      <c r="B271" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C271" s="58" t="s">
         <v>724</v>
       </c>
-      <c r="F249" s="50" t="s">
+      <c r="D271" s="53" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="250">
-      <c r="B250" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C250" s="59" t="s">
+      <c r="E271" s="60" t="s">
         <v>726</v>
       </c>
-      <c r="D250" s="58" t="s">
+      <c r="F271" s="49" t="s">
         <v>727</v>
       </c>
-      <c r="E250" s="53" t="s">
+    </row>
+    <row r="272" ht="135">
+      <c r="B272" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C272" s="58" t="s">
         <v>728</v>
       </c>
-      <c r="F250" s="50" t="s">
+      <c r="D272" s="53" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="52" t="s">
-        <v>397</v>
-      </c>
-      <c r="B251" s="60"/>
-      <c r="C251" s="59"/>
-      <c r="D251" s="58"/>
-    </row>
-    <row r="252" ht="12.75" s="51" customFormat="1">
-      <c r="B252" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C252" s="59" t="s">
+      <c r="E272" s="60" t="s">
         <v>730</v>
       </c>
-      <c r="D252" s="58" t="s">
+      <c r="F272" s="49" t="s">
         <v>731</v>
       </c>
-      <c r="E252" s="59" t="s">
+    </row>
+    <row r="273" ht="67.5">
+      <c r="B273" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273" s="58" t="s">
         <v>732</v>
       </c>
-      <c r="F252" s="51" t="s">
+      <c r="D273" s="53" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="253" ht="12.75" s="51" customFormat="1">
-      <c r="B253" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C253" s="53" t="s">
+      <c r="E273" s="60" t="s">
         <v>734</v>
       </c>
-      <c r="D253" s="54" t="s">
+      <c r="F273" s="49" t="s">
         <v>735</v>
       </c>
-      <c r="E253" s="53" t="s">
+    </row>
+    <row r="274" ht="67.5">
+      <c r="B274" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C274" s="58" t="s">
         <v>736</v>
       </c>
-      <c r="F253" s="51" t="s">
+      <c r="D274" s="53" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="254" ht="12.75" s="51" customFormat="1">
-      <c r="B254" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C254" s="53" t="s">
+      <c r="E274" s="60" t="s">
         <v>738</v>
       </c>
-      <c r="D254" s="54" t="s">
+      <c r="F274" s="49" t="s">
         <v>739</v>
       </c>
-      <c r="E254" s="53" t="s">
+    </row>
+    <row r="275" ht="135">
+      <c r="B275" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275" s="58" t="s">
         <v>740</v>
       </c>
-      <c r="F254" s="51" t="s">
+      <c r="D275" s="53" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="255" ht="12.75" s="51" customFormat="1">
-      <c r="B255" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C255" s="53" t="s">
+      <c r="E275" s="60" t="s">
         <v>742</v>
       </c>
-      <c r="D255" s="54" t="s">
+      <c r="F275" s="49" t="s">
         <v>743</v>
       </c>
-      <c r="E255" s="53" t="s">
+    </row>
+    <row r="276" ht="94.5">
+      <c r="B276" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C276" s="58" t="s">
         <v>744</v>
       </c>
-      <c r="F255" s="51" t="s">
+      <c r="D276" s="57" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="256" ht="12.75" s="51" customFormat="1">
-      <c r="B256" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C256" s="53" t="s">
+      <c r="E276" s="60" t="s">
         <v>746</v>
       </c>
-      <c r="D256" s="54" t="s">
+      <c r="F276" s="49" t="s">
         <v>747</v>
       </c>
-      <c r="E256" s="53" t="s">
+    </row>
+    <row r="277" ht="25.5">
+      <c r="B277" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C277" s="58" t="s">
         <v>748</v>
       </c>
-      <c r="F256" s="51" t="s">
+      <c r="D277" s="57" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="257" ht="12.75" s="51" customFormat="1">
-      <c r="B257" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C257" s="53" t="s">
+      <c r="E277" s="52" t="s">
         <v>750</v>
       </c>
-      <c r="D257" s="54" t="s">
+      <c r="F277" s="49" t="s">
         <v>751</v>
       </c>
-      <c r="E257" s="53" t="s">
+    </row>
+    <row r="278" ht="25.5">
+      <c r="B278" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278" s="58" t="s">
         <v>752</v>
       </c>
-      <c r="F257" s="51" t="s">
+      <c r="D278" s="57" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="258" ht="12.75" s="51" customFormat="1">
-      <c r="B258" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C258" s="53" t="s">
+      <c r="E278" s="52" t="s">
         <v>754</v>
       </c>
-      <c r="D258" s="54" t="s">
+      <c r="F278" s="49" t="s">
         <v>755</v>
       </c>
-      <c r="E258" s="53" t="s">
+    </row>
+    <row r="279">
+      <c r="B279" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C279" s="58" t="s">
         <v>756</v>
       </c>
-      <c r="F258" s="51" t="s">
+      <c r="D279" s="57" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="259" ht="12.75" s="51" customFormat="1">
-      <c r="B259" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C259" s="53" t="s">
+      <c r="E279" s="52" t="s">
         <v>758</v>
       </c>
-      <c r="D259" s="54" t="s">
+      <c r="F279" s="49" t="s">
         <v>759</v>
       </c>
-      <c r="E259" s="53" t="s">
+    </row>
+    <row r="280">
+      <c r="B280" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C280" s="58" t="s">
         <v>760</v>
       </c>
-      <c r="F259" s="51" t="s">
+      <c r="D280" s="57" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="260" ht="12.75" s="51" customFormat="1">
-      <c r="B260" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C260" s="53" t="s">
+      <c r="E280" s="52" t="s">
         <v>762</v>
       </c>
-      <c r="D260" s="54" t="s">
+      <c r="F280" s="49" t="s">
         <v>763</v>
       </c>
-      <c r="E260" s="53" t="s">
+    </row>
+    <row r="281" ht="25.5">
+      <c r="B281" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C281" s="58" t="s">
         <v>764</v>
       </c>
-      <c r="F260" s="51" t="s">
+      <c r="D281" s="57" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="261" ht="12.75" s="51" customFormat="1">
-      <c r="B261" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C261" s="53" t="s">
+      <c r="E281" s="52" t="s">
         <v>766</v>
       </c>
-      <c r="D261" s="54" t="s">
+      <c r="F281" s="49" t="s">
         <v>767</v>
       </c>
-      <c r="E261" s="53" t="s">
+    </row>
+    <row r="282" ht="25.5">
+      <c r="B282" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C282" s="58" t="s">
         <v>768</v>
       </c>
-      <c r="F261" s="51" t="s">
+      <c r="D282" s="57" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="262" ht="12.75" s="51" customFormat="1">
-      <c r="B262" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C262" s="53" t="s">
+      <c r="E282" s="52" t="s">
         <v>770</v>
       </c>
-      <c r="D262" s="54" t="s">
+      <c r="F282" s="49" t="s">
         <v>771</v>
       </c>
-      <c r="E262" s="53" t="s">
+    </row>
+    <row r="283" ht="25.5">
+      <c r="B283" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C283" s="58" t="s">
         <v>772</v>
       </c>
-      <c r="F262" s="51" t="s">
+      <c r="D283" s="57" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="263" ht="12.75" s="51" customFormat="1">
-      <c r="B263" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C263" s="53" t="s">
+      <c r="E283" s="52" t="s">
         <v>774</v>
       </c>
-      <c r="D263" s="54" t="s">
+      <c r="F283" s="49" t="s">
         <v>775</v>
       </c>
-      <c r="E263" s="53" t="s">
+    </row>
+    <row r="284">
+      <c r="B284" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C284" s="58" t="s">
         <v>776</v>
       </c>
-      <c r="F263" s="51" t="s">
+      <c r="D284" s="57" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="264" ht="12.75" s="51" customFormat="1">
-      <c r="B264" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C264" s="53" t="s">
+      <c r="E284" s="52" t="s">
         <v>778</v>
       </c>
-      <c r="D264" s="54" t="s">
+      <c r="F284" s="49" t="s">
         <v>779</v>
       </c>
-      <c r="E264" s="53" t="s">
+    </row>
+    <row r="285">
+      <c r="B285" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C285" s="58" t="s">
         <v>780</v>
       </c>
-      <c r="F264" s="51" t="s">
+      <c r="D285" s="57" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="265" ht="12.75" s="51" customFormat="1">
-      <c r="B265" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C265" s="53" t="s">
+      <c r="E285" s="52" t="s">
         <v>782</v>
       </c>
-      <c r="D265" s="54" t="s">
-        <v>775</v>
-      </c>
-      <c r="E265" s="53" t="s">
-        <v>776</v>
-      </c>
-      <c r="F265" s="51" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="266" ht="12.75" s="51" customFormat="1">
-      <c r="B266" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C266" s="53" t="s">
+      <c r="F285" s="49" t="s">
         <v>783</v>
       </c>
-      <c r="D266" s="54" t="s">
+    </row>
+    <row r="286">
+      <c r="B286" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286" s="58" t="s">
         <v>784</v>
       </c>
-      <c r="E266" s="53" t="s">
+      <c r="D286" s="57" t="s">
         <v>785</v>
       </c>
-      <c r="F266" s="51" t="s">
+      <c r="E286" s="52" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="267" ht="12.75" s="51" customFormat="1">
-      <c r="B267" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C267" s="53" t="s">
+      <c r="F286" s="49" t="s">
         <v>787</v>
       </c>
-      <c r="D267" s="54" t="s">
+    </row>
+    <row r="287" ht="25.5">
+      <c r="B287" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287" s="58" t="s">
         <v>788</v>
       </c>
-      <c r="E267" s="53" t="s">
+      <c r="D287" s="57" t="s">
         <v>789</v>
       </c>
-      <c r="F267" s="51" t="s">
+      <c r="E287" s="52" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="268" ht="12.75" s="51" customFormat="1">
-      <c r="B268" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C268" s="53" t="s">
+      <c r="F287" s="49" t="s">
         <v>791</v>
       </c>
-      <c r="D268" s="54" t="s">
+    </row>
+    <row r="288" ht="25.5">
+      <c r="B288" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C288" s="58" t="s">
         <v>792</v>
       </c>
-      <c r="E268" s="53" t="s">
+      <c r="D288" s="57" t="s">
         <v>793</v>
       </c>
-      <c r="F268" s="51" t="s">
+      <c r="E288" s="52" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="269" ht="12.75" s="51" customFormat="1">
-      <c r="B269" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C269" s="53" t="s">
+      <c r="F288" s="49" t="s">
         <v>795</v>
       </c>
-      <c r="D269" s="54" t="s">
-        <v>775</v>
-      </c>
-      <c r="E269" s="53" t="s">
-        <v>776</v>
-      </c>
-      <c r="F269" s="51" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="270" ht="12.75" s="51" customFormat="1">
-      <c r="B270" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C270" s="53" t="s">
+    </row>
+    <row r="289">
+      <c r="B289" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C289" s="58" t="s">
         <v>796</v>
       </c>
-      <c r="D270" s="54" t="s">
+      <c r="D289" s="57" t="s">
         <v>797</v>
       </c>
-      <c r="E270" s="53" t="s">
+      <c r="E289" s="52" t="s">
         <v>798</v>
       </c>
-      <c r="F270" s="51" t="s">
+      <c r="F289" s="49" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="271" ht="12.75" s="51" customFormat="1">
-      <c r="B271" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C271" s="53" t="s">
+    <row r="290" ht="25.5">
+      <c r="B290" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C290" s="58" t="s">
         <v>800</v>
       </c>
-      <c r="D271" s="54" t="s">
+      <c r="D290" s="57" t="s">
         <v>801</v>
       </c>
-      <c r="E271" s="53" t="s">
+      <c r="E290" s="52" t="s">
         <v>802</v>
       </c>
-      <c r="F271" s="51" t="s">
+      <c r="F290" s="49" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="272" ht="12.75" s="51" customFormat="1">
-      <c r="B272" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C272" s="53" t="s">
+    <row r="291">
+      <c r="A291" s="51" t="s">
+        <v>421</v>
+      </c>
+      <c r="B291" s="59"/>
+      <c r="C291" s="58"/>
+      <c r="D291" s="57"/>
+    </row>
+    <row r="292" ht="12.75" s="50" customFormat="1">
+      <c r="B292" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C292" s="58" t="s">
         <v>804</v>
       </c>
-      <c r="D272" s="54" t="s">
+      <c r="D292" s="57" t="s">
         <v>805</v>
       </c>
-      <c r="E272" s="53" t="s">
+      <c r="E292" s="58" t="s">
         <v>806</v>
       </c>
-      <c r="F272" s="51" t="s">
+      <c r="F292" s="50" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="273" ht="12.75" s="51" customFormat="1">
-      <c r="B273" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C273" s="53" t="s">
+    <row r="293" ht="12.75" s="50" customFormat="1">
+      <c r="B293" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C293" s="52" t="s">
         <v>808</v>
       </c>
-      <c r="D273" s="54" t="s">
+      <c r="D293" s="53" t="s">
         <v>809</v>
       </c>
-      <c r="E273" s="53" t="s">
+      <c r="E293" s="52" t="s">
         <v>810</v>
       </c>
-      <c r="F273" s="51" t="s">
+      <c r="F293" s="50" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="274" ht="12.75" s="51" customFormat="1">
-      <c r="B274" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C274" s="53" t="s">
+    <row r="294" ht="12.75" s="50" customFormat="1">
+      <c r="B294" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C294" s="52" t="s">
         <v>812</v>
       </c>
-      <c r="D274" s="54" t="s">
+      <c r="D294" s="53" t="s">
         <v>813</v>
       </c>
-      <c r="E274" s="53" t="s">
+      <c r="E294" s="52" t="s">
         <v>814</v>
       </c>
-      <c r="F274" s="51" t="s">
+      <c r="F294" s="50" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="275" ht="12.75" s="51" customFormat="1">
-      <c r="B275" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C275" s="53" t="s">
+    <row r="295" ht="12.75" s="50" customFormat="1">
+      <c r="B295" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295" s="52" t="s">
         <v>816</v>
       </c>
-      <c r="D275" s="54" t="s">
+      <c r="D295" s="53" t="s">
         <v>817</v>
       </c>
-      <c r="E275" s="53" t="s">
+      <c r="E295" s="52" t="s">
         <v>818</v>
       </c>
-      <c r="F275" s="51" t="s">
+      <c r="F295" s="50" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="276" ht="12.75" s="51" customFormat="1">
-      <c r="B276" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C276" s="53" t="s">
+    <row r="296" ht="12.75" s="50" customFormat="1">
+      <c r="B296" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C296" s="52" t="s">
         <v>820</v>
       </c>
-      <c r="D276" s="54" t="s">
+      <c r="D296" s="53" t="s">
         <v>821</v>
       </c>
-      <c r="E276" s="53" t="s">
-        <v>821</v>
-      </c>
-      <c r="F276" s="51" t="s">
+      <c r="E296" s="52" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="277" ht="12.75" s="51" customFormat="1">
-      <c r="B277" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C277" s="53" t="s">
+      <c r="F296" s="50" t="s">
         <v>823</v>
       </c>
-      <c r="D277" s="54" t="s">
+    </row>
+    <row r="297" ht="12.75" s="50" customFormat="1">
+      <c r="B297" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C297" s="52" t="s">
         <v>824</v>
       </c>
-      <c r="E277" s="53" t="s">
+      <c r="D297" s="53" t="s">
         <v>825</v>
       </c>
-      <c r="F277" s="51" t="s">
+      <c r="E297" s="52" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="278" ht="12.75" s="51" customFormat="1">
-      <c r="B278" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C278" s="53" t="s">
+      <c r="F297" s="50" t="s">
         <v>827</v>
       </c>
-      <c r="D278" s="54" t="s">
+    </row>
+    <row r="298" ht="12.75" s="50" customFormat="1">
+      <c r="B298" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C298" s="52" t="s">
         <v>828</v>
       </c>
-      <c r="E278" s="53" t="s">
-        <v>828</v>
-      </c>
-      <c r="F278" s="51" t="s">
+      <c r="D298" s="53" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="279" ht="12.75" s="51" customFormat="1">
-      <c r="B279" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C279" s="53" t="s">
+      <c r="E298" s="52" t="s">
         <v>830</v>
       </c>
-      <c r="D279" s="54" t="s">
+      <c r="F298" s="50" t="s">
         <v>831</v>
       </c>
-      <c r="E279" s="53" t="s">
-        <v>831</v>
-      </c>
-      <c r="F279" s="51" t="s">
+    </row>
+    <row r="299" ht="12.75" s="50" customFormat="1">
+      <c r="B299" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C299" s="52" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="280" ht="12.75" s="51" customFormat="1">
-      <c r="B280" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C280" s="53" t="s">
+      <c r="D299" s="53" t="s">
         <v>833</v>
       </c>
-      <c r="D280" s="54" t="s">
+      <c r="E299" s="52" t="s">
         <v>834</v>
       </c>
-      <c r="E280" s="53" t="s">
+      <c r="F299" s="50" t="s">
         <v>835</v>
       </c>
-      <c r="F280" s="51" t="s">
+    </row>
+    <row r="300" ht="12.75" s="50" customFormat="1">
+      <c r="B300" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C300" s="52" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="281" ht="12.75" s="51" customFormat="1">
-      <c r="B281" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C281" s="53" t="s">
+      <c r="D300" s="53" t="s">
         <v>837</v>
       </c>
-      <c r="D281" s="54" t="s">
+      <c r="E300" s="52" t="s">
         <v>838</v>
       </c>
-      <c r="E281" s="53" t="s">
+      <c r="F300" s="50" t="s">
         <v>839</v>
       </c>
-      <c r="F281" s="51" t="s">
+    </row>
+    <row r="301" ht="12.75" s="50" customFormat="1">
+      <c r="B301" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C301" s="52" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="282" ht="12.75" s="51" customFormat="1">
-      <c r="B282" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C282" s="53" t="s">
+      <c r="D301" s="53" t="s">
         <v>841</v>
       </c>
-      <c r="D282" s="54" t="s">
+      <c r="E301" s="52" t="s">
         <v>842</v>
       </c>
-      <c r="E282" s="53" t="s">
+      <c r="F301" s="50" t="s">
         <v>843</v>
       </c>
-      <c r="F282" s="51" t="s">
+    </row>
+    <row r="302" ht="12.75" s="50" customFormat="1">
+      <c r="B302" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C302" s="52" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="283" ht="12.75" s="51" customFormat="1">
-      <c r="B283" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C283" s="53" t="s">
+      <c r="D302" s="53" t="s">
         <v>845</v>
       </c>
-      <c r="D283" s="54" t="s">
+      <c r="E302" s="52" t="s">
         <v>846</v>
       </c>
-      <c r="E283" s="53" t="s">
+      <c r="F302" s="50" t="s">
         <v>847</v>
       </c>
-      <c r="F283" s="51" t="s">
+    </row>
+    <row r="303" ht="12.75" s="50" customFormat="1">
+      <c r="B303" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C303" s="52" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="284" ht="12.75" s="51" customFormat="1">
-      <c r="B284" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C284" s="53" t="s">
+      <c r="D303" s="53" t="s">
         <v>849</v>
       </c>
-      <c r="D284" s="54" t="s">
+      <c r="E303" s="52" t="s">
         <v>850</v>
       </c>
-      <c r="E284" s="53" t="s">
+      <c r="F303" s="50" t="s">
         <v>851</v>
       </c>
-      <c r="F284" s="51" t="s">
+    </row>
+    <row r="304" ht="12.75" s="50" customFormat="1">
+      <c r="B304" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C304" s="52" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="285" ht="12.75" s="51" customFormat="1">
-      <c r="B285" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C285" s="53" t="s">
+      <c r="D304" s="53" t="s">
         <v>853</v>
       </c>
-      <c r="D285" s="54" t="s">
+      <c r="E304" s="52" t="s">
         <v>854</v>
       </c>
-      <c r="E285" s="53" t="s">
+      <c r="F304" s="50" t="s">
         <v>855</v>
       </c>
-      <c r="F285" s="51" t="s">
+    </row>
+    <row r="305" ht="12.75" s="50" customFormat="1">
+      <c r="B305" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C305" s="52" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="286" ht="12.75" s="51" customFormat="1">
-      <c r="B286" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C286" s="53" t="s">
+      <c r="D305" s="53" t="s">
+        <v>849</v>
+      </c>
+      <c r="E305" s="52" t="s">
+        <v>850</v>
+      </c>
+      <c r="F305" s="50" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="306" ht="12.75" s="50" customFormat="1">
+      <c r="B306" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C306" s="52" t="s">
         <v>857</v>
       </c>
-      <c r="D286" s="54" t="s">
+      <c r="D306" s="53" t="s">
         <v>858</v>
       </c>
-      <c r="E286" s="53" t="s">
-        <v>858</v>
-      </c>
-      <c r="F286" s="51" t="s">
+      <c r="E306" s="52" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="287" ht="12.75" s="51" customFormat="1">
-      <c r="B287" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C287" s="53" t="s">
+      <c r="F306" s="50" t="s">
         <v>860</v>
       </c>
-      <c r="D287" s="54" t="s">
+    </row>
+    <row r="307" ht="12.75" s="50" customFormat="1">
+      <c r="B307" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C307" s="52" t="s">
         <v>861</v>
       </c>
-      <c r="E287" s="53" t="s">
+      <c r="D307" s="53" t="s">
         <v>862</v>
       </c>
-      <c r="F287" s="51" t="s">
+      <c r="E307" s="52" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="288" ht="12.75" s="51" customFormat="1">
-      <c r="B288" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C288" s="53" t="s">
+      <c r="F307" s="50" t="s">
         <v>864</v>
       </c>
-      <c r="D288" s="54" t="s">
+    </row>
+    <row r="308" ht="12.75" s="50" customFormat="1">
+      <c r="B308" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308" s="52" t="s">
         <v>865</v>
       </c>
-      <c r="E288" s="53" t="s">
+      <c r="D308" s="53" t="s">
         <v>866</v>
       </c>
-      <c r="F288" s="51" t="s">
+      <c r="E308" s="52" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="289" ht="12.75" s="51" customFormat="1">
-      <c r="B289" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C289" s="53" t="s">
+      <c r="F308" s="50" t="s">
         <v>868</v>
       </c>
-      <c r="D289" s="54" t="s">
+    </row>
+    <row r="309" ht="12.75" s="50" customFormat="1">
+      <c r="B309" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C309" s="52" t="s">
         <v>869</v>
       </c>
-      <c r="E289" s="53" t="s">
-        <v>869</v>
-      </c>
-      <c r="F289" s="51" t="s">
+      <c r="D309" s="53" t="s">
+        <v>849</v>
+      </c>
+      <c r="E309" s="52" t="s">
+        <v>850</v>
+      </c>
+      <c r="F309" s="50" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="310" ht="12.75" s="50" customFormat="1">
+      <c r="B310" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C310" s="52" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="290" ht="12.75" s="51" customFormat="1">
-      <c r="B290" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C290" s="53" t="s">
+      <c r="D310" s="53" t="s">
         <v>871</v>
       </c>
-      <c r="D290" s="54" t="s">
+      <c r="E310" s="52" t="s">
         <v>872</v>
       </c>
-      <c r="E290" s="53" t="s">
-        <v>872</v>
-      </c>
-      <c r="F290" s="51" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="291" ht="25.5" s="51" customFormat="1">
-      <c r="B291" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C291" s="53" t="s">
+      <c r="F310" s="50" t="s">
         <v>873</v>
       </c>
-      <c r="D291" s="54" t="s">
+    </row>
+    <row r="311" ht="12.75" s="50" customFormat="1">
+      <c r="B311" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C311" s="52" t="s">
         <v>874</v>
       </c>
-      <c r="E291" s="53" t="s">
+      <c r="D311" s="53" t="s">
         <v>875</v>
       </c>
-      <c r="F291" s="51" t="s">
+      <c r="E311" s="52" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="292" ht="12.75" s="51" customFormat="1">
-      <c r="B292" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C292" s="53" t="s">
+      <c r="F311" s="50" t="s">
         <v>877</v>
       </c>
-      <c r="D292" s="54" t="s">
+    </row>
+    <row r="312" ht="12.75" s="50" customFormat="1">
+      <c r="B312" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C312" s="52" t="s">
         <v>878</v>
       </c>
-      <c r="E292" s="53" t="s">
+      <c r="D312" s="53" t="s">
         <v>879</v>
       </c>
-      <c r="F292" s="51" t="s">
+      <c r="E312" s="52" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="293" ht="12.75" s="51" customFormat="1">
-      <c r="B293" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C293" s="53" t="s">
+      <c r="F312" s="50" t="s">
         <v>881</v>
       </c>
-      <c r="D293" s="54" t="s">
+    </row>
+    <row r="313" ht="12.75" s="50" customFormat="1">
+      <c r="B313" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C313" s="52" t="s">
         <v>882</v>
       </c>
-      <c r="E293" s="53" t="s">
+      <c r="D313" s="53" t="s">
         <v>883</v>
       </c>
-      <c r="F293" s="51" t="s">
+      <c r="E313" s="52" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="294" ht="12.75" s="51" customFormat="1">
-      <c r="B294" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C294" s="53" t="s">
+      <c r="F313" s="50" t="s">
         <v>885</v>
       </c>
-      <c r="D294" s="54" t="s">
+    </row>
+    <row r="314" ht="12.75" s="50" customFormat="1">
+      <c r="B314" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C314" s="52" t="s">
         <v>886</v>
       </c>
-      <c r="E294" s="53" t="s">
+      <c r="D314" s="53" t="s">
         <v>887</v>
       </c>
-      <c r="F294" s="51" t="s">
+      <c r="E314" s="52" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="295" ht="12.75" s="51" customFormat="1">
-      <c r="B295" s="62">
+      <c r="F314" s="50" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="315" ht="12.75" s="50" customFormat="1">
+      <c r="B315" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C315" s="52" t="s">
+        <v>890</v>
+      </c>
+      <c r="D315" s="53" t="s">
+        <v>891</v>
+      </c>
+      <c r="E315" s="52" t="s">
+        <v>892</v>
+      </c>
+      <c r="F315" s="50" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="316" ht="12.75" s="50" customFormat="1">
+      <c r="B316" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C316" s="52" t="s">
+        <v>894</v>
+      </c>
+      <c r="D316" s="53" t="s">
+        <v>895</v>
+      </c>
+      <c r="E316" s="52" t="s">
+        <v>895</v>
+      </c>
+      <c r="F316" s="50" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="317" ht="12.75" s="50" customFormat="1">
+      <c r="B317" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C317" s="52" t="s">
+        <v>897</v>
+      </c>
+      <c r="D317" s="53" t="s">
+        <v>898</v>
+      </c>
+      <c r="E317" s="52" t="s">
+        <v>899</v>
+      </c>
+      <c r="F317" s="50" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="318" ht="12.75" s="50" customFormat="1">
+      <c r="B318" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C318" s="52" t="s">
+        <v>901</v>
+      </c>
+      <c r="D318" s="53" t="s">
+        <v>902</v>
+      </c>
+      <c r="E318" s="52" t="s">
+        <v>902</v>
+      </c>
+      <c r="F318" s="50" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="319" ht="12.75" s="50" customFormat="1">
+      <c r="B319" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C319" s="52" t="s">
+        <v>904</v>
+      </c>
+      <c r="D319" s="53" t="s">
+        <v>905</v>
+      </c>
+      <c r="E319" s="52" t="s">
+        <v>905</v>
+      </c>
+      <c r="F319" s="50" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="320" ht="12.75" s="50" customFormat="1">
+      <c r="B320" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C320" s="52" t="s">
+        <v>907</v>
+      </c>
+      <c r="D320" s="53" t="s">
+        <v>908</v>
+      </c>
+      <c r="E320" s="52" t="s">
+        <v>909</v>
+      </c>
+      <c r="F320" s="50" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="321" ht="12.75" s="50" customFormat="1">
+      <c r="B321" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C321" s="52" t="s">
+        <v>911</v>
+      </c>
+      <c r="D321" s="53" t="s">
+        <v>912</v>
+      </c>
+      <c r="E321" s="52" t="s">
+        <v>913</v>
+      </c>
+      <c r="F321" s="50" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="322" ht="12.75" s="50" customFormat="1">
+      <c r="B322" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C322" s="52" t="s">
+        <v>915</v>
+      </c>
+      <c r="D322" s="53" t="s">
+        <v>916</v>
+      </c>
+      <c r="E322" s="52" t="s">
+        <v>917</v>
+      </c>
+      <c r="F322" s="50" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="323" ht="12.75" s="50" customFormat="1">
+      <c r="B323" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C323" s="52" t="s">
+        <v>919</v>
+      </c>
+      <c r="D323" s="53" t="s">
+        <v>920</v>
+      </c>
+      <c r="E323" s="52" t="s">
+        <v>921</v>
+      </c>
+      <c r="F323" s="50" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="324" ht="12.75" s="50" customFormat="1">
+      <c r="B324" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C324" s="52" t="s">
+        <v>923</v>
+      </c>
+      <c r="D324" s="53" t="s">
+        <v>924</v>
+      </c>
+      <c r="E324" s="52" t="s">
+        <v>925</v>
+      </c>
+      <c r="F324" s="50" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="325" ht="12.75" s="50" customFormat="1">
+      <c r="B325" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C325" s="52" t="s">
+        <v>927</v>
+      </c>
+      <c r="D325" s="53" t="s">
+        <v>928</v>
+      </c>
+      <c r="E325" s="52" t="s">
+        <v>929</v>
+      </c>
+      <c r="F325" s="50" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="326" ht="12.75" s="50" customFormat="1">
+      <c r="B326" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C326" s="52" t="s">
+        <v>931</v>
+      </c>
+      <c r="D326" s="53" t="s">
+        <v>932</v>
+      </c>
+      <c r="E326" s="52" t="s">
+        <v>932</v>
+      </c>
+      <c r="F326" s="50" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="327" ht="12.75" s="50" customFormat="1">
+      <c r="B327" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C327" s="52" t="s">
+        <v>934</v>
+      </c>
+      <c r="D327" s="53" t="s">
+        <v>935</v>
+      </c>
+      <c r="E327" s="52" t="s">
+        <v>936</v>
+      </c>
+      <c r="F327" s="50" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="328" ht="12.75" s="50" customFormat="1">
+      <c r="B328" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C328" s="52" t="s">
+        <v>938</v>
+      </c>
+      <c r="D328" s="53" t="s">
+        <v>939</v>
+      </c>
+      <c r="E328" s="52" t="s">
+        <v>940</v>
+      </c>
+      <c r="F328" s="50" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="329" ht="12.75" s="50" customFormat="1">
+      <c r="B329" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C329" s="52" t="s">
+        <v>942</v>
+      </c>
+      <c r="D329" s="53" t="s">
+        <v>943</v>
+      </c>
+      <c r="E329" s="52" t="s">
+        <v>943</v>
+      </c>
+      <c r="F329" s="50" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="330" ht="12.75" s="50" customFormat="1">
+      <c r="B330" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C330" s="52" t="s">
+        <v>945</v>
+      </c>
+      <c r="D330" s="53" t="s">
+        <v>946</v>
+      </c>
+      <c r="E330" s="52" t="s">
+        <v>946</v>
+      </c>
+      <c r="F330" s="50" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="331" ht="25.5" s="50" customFormat="1">
+      <c r="B331" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C331" s="52" t="s">
+        <v>947</v>
+      </c>
+      <c r="D331" s="53" t="s">
+        <v>948</v>
+      </c>
+      <c r="E331" s="52" t="s">
+        <v>949</v>
+      </c>
+      <c r="F331" s="50" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="332" ht="12.75" s="50" customFormat="1">
+      <c r="B332" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C332" s="52" t="s">
+        <v>951</v>
+      </c>
+      <c r="D332" s="53" t="s">
+        <v>952</v>
+      </c>
+      <c r="E332" s="52" t="s">
+        <v>953</v>
+      </c>
+      <c r="F332" s="50" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="333" ht="12.75" s="50" customFormat="1">
+      <c r="B333" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C333" s="52" t="s">
+        <v>955</v>
+      </c>
+      <c r="D333" s="53" t="s">
+        <v>956</v>
+      </c>
+      <c r="E333" s="52" t="s">
+        <v>957</v>
+      </c>
+      <c r="F333" s="50" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="334" ht="12.75" s="50" customFormat="1">
+      <c r="B334" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C334" s="52" t="s">
+        <v>959</v>
+      </c>
+      <c r="D334" s="53" t="s">
+        <v>960</v>
+      </c>
+      <c r="E334" s="52" t="s">
+        <v>961</v>
+      </c>
+      <c r="F334" s="50" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="335" ht="12.75" s="50" customFormat="1">
+      <c r="B335" s="61">
         <v>0</v>
       </c>
-      <c r="C295" s="53" t="s">
-        <v>889</v>
-      </c>
-      <c r="D295" s="54" t="s">
-        <v>890</v>
-      </c>
-      <c r="E295" s="53" t="s">
-        <v>891</v>
-      </c>
-      <c r="F295" s="51" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="296" ht="12.75" s="51" customFormat="1">
-      <c r="B296" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C296" s="53" t="s">
-        <v>893</v>
-      </c>
-      <c r="D296" s="54" t="s">
-        <v>894</v>
-      </c>
-      <c r="E296" s="53" t="s">
-        <v>894</v>
-      </c>
-      <c r="F296" s="51" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="297" ht="12.75" s="51" customFormat="1">
-      <c r="B297" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C297" s="53" t="s">
-        <v>896</v>
-      </c>
-      <c r="D297" s="54" t="s">
-        <v>897</v>
-      </c>
-      <c r="E297" s="53" t="s">
-        <v>897</v>
-      </c>
-      <c r="F297" s="51" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="298" ht="12.75" s="51" customFormat="1">
-      <c r="B298" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C298" s="53" t="s">
-        <v>899</v>
-      </c>
-      <c r="D298" s="54" t="s">
-        <v>900</v>
-      </c>
-      <c r="E298" s="53" t="s">
-        <v>900</v>
-      </c>
-      <c r="F298" s="51" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="299" ht="12.75" s="51" customFormat="1">
-      <c r="B299" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C299" s="53" t="s">
-        <v>902</v>
-      </c>
-      <c r="D299" s="54" t="s">
-        <v>903</v>
-      </c>
-      <c r="E299" s="53" t="s">
-        <v>903</v>
-      </c>
-      <c r="F299" s="51" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="300" ht="12.75" s="51" customFormat="1">
-      <c r="B300" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C300" s="53" t="s">
-        <v>905</v>
-      </c>
-      <c r="D300" s="54" t="s">
-        <v>906</v>
-      </c>
-      <c r="E300" s="53" t="s">
-        <v>906</v>
-      </c>
-      <c r="F300" s="51" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="301" ht="12.75" s="51" customFormat="1">
-      <c r="B301" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C301" s="53" t="s">
-        <v>908</v>
-      </c>
-      <c r="D301" s="54" t="s">
-        <v>872</v>
-      </c>
-      <c r="E301" s="53" t="s">
-        <v>872</v>
-      </c>
-      <c r="F301" s="51" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="302" ht="12.75" s="51" customFormat="1">
-      <c r="B302" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C302" s="53" t="s">
-        <v>909</v>
-      </c>
-      <c r="D302" s="54" t="s">
-        <v>910</v>
-      </c>
-      <c r="E302" s="53" t="s">
-        <v>911</v>
-      </c>
-      <c r="F302" s="51" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="303" ht="12.75" s="51" customFormat="1">
-      <c r="B303" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C303" s="53" t="s">
-        <v>913</v>
-      </c>
-      <c r="D303" s="54" t="s">
-        <v>914</v>
-      </c>
-      <c r="E303" s="53" t="s">
-        <v>915</v>
-      </c>
-      <c r="F303" s="51" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="304" ht="25.5" s="51" customFormat="1">
-      <c r="B304" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C304" s="53" t="s">
-        <v>917</v>
-      </c>
-      <c r="D304" s="54" t="s">
-        <v>918</v>
-      </c>
-      <c r="E304" s="53" t="s">
-        <v>919</v>
-      </c>
-      <c r="F304" s="51" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="305" ht="12.75" s="51" customFormat="1">
-      <c r="A305" s="63" t="s">
-        <v>921</v>
-      </c>
-      <c r="B305" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C305" s="53" t="s">
-        <v>922</v>
-      </c>
-      <c r="D305" s="54" t="s">
-        <v>923</v>
-      </c>
-      <c r="E305" s="53" t="s">
-        <v>923</v>
-      </c>
-      <c r="F305" s="51" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="306" ht="12.75" s="51" customFormat="1">
-      <c r="A306" s="63" t="s">
-        <v>925</v>
-      </c>
-      <c r="B306" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C306" s="53" t="s">
-        <v>926</v>
-      </c>
-      <c r="D306" s="54" t="s">
-        <v>927</v>
-      </c>
-      <c r="E306" s="53" t="s">
-        <v>927</v>
-      </c>
-      <c r="F306" s="51" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="307" ht="12.75" s="51" customFormat="1">
-      <c r="A307" s="63"/>
-      <c r="B307" s="51">
+      <c r="C335" s="52" t="s">
+        <v>963</v>
+      </c>
+      <c r="D335" s="53" t="s">
+        <v>964</v>
+      </c>
+      <c r="E335" s="52" t="s">
+        <v>965</v>
+      </c>
+      <c r="F335" s="50" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="336" ht="12.75" s="50" customFormat="1">
+      <c r="B336" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C336" s="52" t="s">
+        <v>967</v>
+      </c>
+      <c r="D336" s="53" t="s">
+        <v>968</v>
+      </c>
+      <c r="E336" s="52" t="s">
+        <v>968</v>
+      </c>
+      <c r="F336" s="50" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="337" ht="12.75" s="50" customFormat="1">
+      <c r="B337" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C337" s="52" t="s">
+        <v>970</v>
+      </c>
+      <c r="D337" s="53" t="s">
+        <v>971</v>
+      </c>
+      <c r="E337" s="52" t="s">
+        <v>971</v>
+      </c>
+      <c r="F337" s="50" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="338" ht="12.75" s="50" customFormat="1">
+      <c r="B338" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C338" s="52" t="s">
+        <v>973</v>
+      </c>
+      <c r="D338" s="53" t="s">
+        <v>974</v>
+      </c>
+      <c r="E338" s="52" t="s">
+        <v>974</v>
+      </c>
+      <c r="F338" s="50" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="339" ht="12.75" s="50" customFormat="1">
+      <c r="B339" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C339" s="52" t="s">
+        <v>976</v>
+      </c>
+      <c r="D339" s="53" t="s">
+        <v>977</v>
+      </c>
+      <c r="E339" s="52" t="s">
+        <v>977</v>
+      </c>
+      <c r="F339" s="50" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="340" ht="12.75" s="50" customFormat="1">
+      <c r="B340" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C340" s="52" t="s">
+        <v>979</v>
+      </c>
+      <c r="D340" s="53" t="s">
+        <v>980</v>
+      </c>
+      <c r="E340" s="52" t="s">
+        <v>980</v>
+      </c>
+      <c r="F340" s="50" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="341" ht="12.75" s="50" customFormat="1">
+      <c r="B341" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C341" s="52" t="s">
+        <v>982</v>
+      </c>
+      <c r="D341" s="53" t="s">
+        <v>946</v>
+      </c>
+      <c r="E341" s="52" t="s">
+        <v>946</v>
+      </c>
+      <c r="F341" s="50" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="342" ht="12.75" s="50" customFormat="1">
+      <c r="B342" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C342" s="52" t="s">
+        <v>983</v>
+      </c>
+      <c r="D342" s="53" t="s">
+        <v>984</v>
+      </c>
+      <c r="E342" s="52" t="s">
+        <v>985</v>
+      </c>
+      <c r="F342" s="50" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="343" ht="12.75" s="50" customFormat="1">
+      <c r="B343" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C343" s="52" t="s">
+        <v>987</v>
+      </c>
+      <c r="D343" s="53" t="s">
+        <v>988</v>
+      </c>
+      <c r="E343" s="52" t="s">
+        <v>989</v>
+      </c>
+      <c r="F343" s="50" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="344" ht="25.5" s="50" customFormat="1">
+      <c r="B344" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C344" s="52" t="s">
+        <v>991</v>
+      </c>
+      <c r="D344" s="53" t="s">
+        <v>992</v>
+      </c>
+      <c r="E344" s="52" t="s">
+        <v>993</v>
+      </c>
+      <c r="F344" s="50" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="345" ht="12.75" s="50" customFormat="1">
+      <c r="A345" s="62" t="s">
+        <v>995</v>
+      </c>
+      <c r="B345" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C345" s="52" t="s">
+        <v>996</v>
+      </c>
+      <c r="D345" s="53" t="s">
+        <v>997</v>
+      </c>
+      <c r="E345" s="52" t="s">
+        <v>997</v>
+      </c>
+      <c r="F345" s="50" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="346" ht="12.75" s="50" customFormat="1">
+      <c r="A346" s="62" t="s">
+        <v>999</v>
+      </c>
+      <c r="B346" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C346" s="52" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D346" s="53" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E346" s="52" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F346" s="50" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="347" ht="12.75" s="50" customFormat="1">
+      <c r="A347" s="62"/>
+      <c r="B347" s="50">
         <v>0</v>
       </c>
-      <c r="C307" s="53" t="s">
-        <v>929</v>
-      </c>
-      <c r="D307" s="54" t="s">
-        <v>930</v>
-      </c>
-      <c r="E307" s="53" t="s">
-        <v>930</v>
-      </c>
-      <c r="F307" s="51" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="308" ht="12.75" s="51" customFormat="1">
-      <c r="A308" s="63"/>
-      <c r="B308" s="51">
+      <c r="C347" s="52" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D347" s="53" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E347" s="52" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F347" s="50" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="348" ht="12.75" s="50" customFormat="1">
+      <c r="A348" s="62"/>
+      <c r="B348" s="50">
         <v>0</v>
       </c>
-      <c r="C308" s="53" t="s">
-        <v>932</v>
-      </c>
-      <c r="D308" s="54" t="s">
-        <v>933</v>
-      </c>
-      <c r="E308" s="53" t="s">
-        <v>933</v>
-      </c>
-      <c r="F308" s="51" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="52" t="s">
-        <v>935</v>
-      </c>
-      <c r="C309" s="64"/>
-      <c r="D309" s="65"/>
-      <c r="E309" s="64"/>
+      <c r="C348" s="52" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D348" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E348" s="52" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F348" s="50" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="51" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C349" s="63"/>
+      <c r="D349" s="64"/>
+      <c r="E349" s="63"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C252">
+  <conditionalFormatting sqref="C292">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D252:E252">
+  <conditionalFormatting sqref="D292:E292">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G252 J252:XFD252 A252:B252">
+  <conditionalFormatting sqref="G292 J292:XFD292 A292:B292">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
